--- a/data/Rivers/MangatepopoatdsIntake_106f8d2943.xlsx
+++ b/data/Rivers/MangatepopoatdsIntake_106f8d2943.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -523,7 +523,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -566,7 +566,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -648,7 +648,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -691,7 +691,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -734,7 +734,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -777,7 +777,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -851,7 +851,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -933,7 +933,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -976,7 +976,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1611,7 +1611,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -1650,7 +1650,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
@@ -1728,7 +1728,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
@@ -1798,7 +1798,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -1981,7 +1981,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -2020,7 +2020,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
@@ -2090,7 +2090,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
@@ -2187,7 +2187,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -2257,7 +2257,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
@@ -2331,7 +2331,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
@@ -2409,7 +2409,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
@@ -2448,7 +2448,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
@@ -2479,7 +2479,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
@@ -2522,7 +2522,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
@@ -2561,7 +2561,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
@@ -2647,7 +2647,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
@@ -2733,7 +2733,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
@@ -2807,7 +2807,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
@@ -2838,7 +2838,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
@@ -2939,7 +2939,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
@@ -2974,7 +2974,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
@@ -3013,7 +3013,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
@@ -3044,7 +3044,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
@@ -3079,7 +3079,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C72" s="2" t="n">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
@@ -3180,7 +3180,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
@@ -3219,7 +3219,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C76" s="2" t="n">
@@ -3285,7 +3285,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C77" s="2" t="n">
@@ -3316,7 +3316,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
@@ -3386,7 +3386,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C80" s="2" t="n">
@@ -3425,7 +3425,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C81" s="2" t="n">
@@ -3456,7 +3456,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C83" s="2" t="n">
@@ -3530,7 +3530,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
@@ -3608,7 +3608,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
@@ -3647,7 +3647,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C87" s="2" t="n">
@@ -3686,7 +3686,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
@@ -3729,7 +3729,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C89" s="2" t="n">
@@ -3768,7 +3768,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
@@ -3842,7 +3842,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
@@ -3881,7 +3881,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
@@ -3920,7 +3920,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C94" s="2" t="n">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C95" s="2" t="n">
@@ -3994,7 +3994,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
@@ -4033,7 +4033,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C97" s="2" t="n">
@@ -4107,7 +4107,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C99" s="2" t="n">
@@ -4146,7 +4146,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C100" s="2" t="n">
@@ -4185,7 +4185,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C101" s="2" t="n">
@@ -4228,7 +4228,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
@@ -4259,7 +4259,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
@@ -4294,7 +4294,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C104" s="2" t="n">
@@ -4325,7 +4325,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C105" s="2" t="n">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C106" s="2" t="n">
@@ -4395,7 +4395,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C107" s="2" t="n">
@@ -4434,7 +4434,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C108" s="2" t="n">
@@ -4469,7 +4469,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C109" s="2" t="n">
@@ -4500,7 +4500,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C110" s="2" t="n">
@@ -4535,7 +4535,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C111" s="2" t="n">
@@ -4570,7 +4570,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C112" s="2" t="n">
@@ -4609,7 +4609,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C113" s="2" t="n">
@@ -4640,7 +4640,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C114" s="2" t="n">
@@ -4679,7 +4679,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C115" s="2" t="n">
@@ -4753,7 +4753,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C117" s="2" t="n">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C118" s="2" t="n">
@@ -4831,7 +4831,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C119" s="2" t="n">
@@ -4874,7 +4874,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C120" s="2" t="n">
@@ -4905,7 +4905,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C121" s="2" t="n">
@@ -4944,7 +4944,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C122" s="2" t="n">
@@ -5018,7 +5018,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C124" s="2" t="n">
@@ -5057,7 +5057,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C125" s="2" t="n">
@@ -5096,7 +5096,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C126" s="2" t="n">
@@ -5139,7 +5139,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C127" s="2" t="n">
@@ -5170,7 +5170,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C128" s="2" t="n">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C129" s="2" t="n">
@@ -5283,7 +5283,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C131" s="2" t="n">
@@ -5322,7 +5322,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C132" s="2" t="n">
@@ -5361,7 +5361,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C133" s="2" t="n">
@@ -5404,7 +5404,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C134" s="2" t="n">
@@ -5435,7 +5435,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C135" s="2" t="n">
@@ -5474,7 +5474,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C136" s="2" t="n">
@@ -5548,7 +5548,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C138" s="2" t="n">
@@ -5587,7 +5587,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C139" s="2" t="n">
@@ -5626,7 +5626,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C140" s="2" t="n">
@@ -5669,7 +5669,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C141" s="2" t="n">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C142" s="2" t="n">
@@ -5735,7 +5735,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C143" s="2" t="n">
@@ -5766,7 +5766,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C144" s="2" t="n">
@@ -5801,7 +5801,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C145" s="2" t="n">
@@ -5836,7 +5836,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C146" s="2" t="n">
@@ -5875,7 +5875,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C147" s="2" t="n">
@@ -5906,7 +5906,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C148" s="2" t="n">
@@ -5945,7 +5945,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C149" s="2" t="n">
@@ -6019,7 +6019,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C151" s="2" t="n">
@@ -6058,7 +6058,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C152" s="2" t="n">
@@ -6097,7 +6097,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C153" s="2" t="n">
@@ -6140,7 +6140,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C154" s="2" t="n">
@@ -6171,7 +6171,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C155" s="2" t="n">
@@ -6210,7 +6210,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C156" s="2" t="n">
@@ -6284,7 +6284,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C158" s="2" t="n">
@@ -6323,7 +6323,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C159" s="2" t="n">
@@ -6362,7 +6362,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C160" s="2" t="n">
@@ -6405,7 +6405,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C161" s="2" t="n">
@@ -6436,7 +6436,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C162" s="2" t="n">
@@ -6475,7 +6475,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C163" s="2" t="n">
@@ -6549,7 +6549,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C165" s="2" t="n">
@@ -6588,7 +6588,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C166" s="2" t="n">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C167" s="2" t="n">
@@ -6670,7 +6670,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C168" s="2" t="n">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C169" s="2" t="n">
@@ -6740,7 +6740,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C170" s="2" t="n">
@@ -6814,7 +6814,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C172" s="2" t="n">
@@ -6853,7 +6853,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C173" s="2" t="n">
@@ -6892,7 +6892,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C174" s="2" t="n">
@@ -6935,7 +6935,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C175" s="2" t="n">
@@ -6966,7 +6966,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C176" s="2" t="n">
@@ -7001,7 +7001,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C177" s="2" t="n">
@@ -7032,7 +7032,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C178" s="2" t="n">
@@ -7067,7 +7067,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C179" s="2" t="n">
@@ -7102,7 +7102,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C180" s="2" t="n">
@@ -7141,7 +7141,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C181" s="2" t="n">
@@ -7172,7 +7172,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C182" s="2" t="n">
@@ -7211,7 +7211,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C183" s="2" t="n">
@@ -7285,7 +7285,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C185" s="2" t="n">
@@ -7324,7 +7324,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C186" s="2" t="n">
@@ -7363,7 +7363,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C187" s="2" t="n">
@@ -7406,7 +7406,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C188" s="2" t="n">
@@ -7437,7 +7437,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C189" s="2" t="n">
@@ -7476,7 +7476,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C190" s="2" t="n">
@@ -7550,7 +7550,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C192" s="2" t="n">
@@ -7589,7 +7589,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C193" s="2" t="n">
@@ -7628,7 +7628,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C194" s="2" t="n">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C195" s="2" t="n">
@@ -7702,7 +7702,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C196" s="2" t="n">
@@ -7741,7 +7741,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C197" s="2" t="n">
@@ -7815,7 +7815,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C199" s="2" t="n">
@@ -7854,7 +7854,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C200" s="2" t="n">
@@ -7893,7 +7893,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C201" s="2" t="n">
@@ -7936,7 +7936,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C202" s="2" t="n">
@@ -7967,7 +7967,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C203" s="2" t="n">
@@ -8006,7 +8006,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C204" s="2" t="n">
@@ -8080,7 +8080,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C206" s="2" t="n">
@@ -8119,7 +8119,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C207" s="2" t="n">
@@ -8158,7 +8158,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C208" s="2" t="n">
@@ -8201,7 +8201,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C209" s="2" t="n">
@@ -8232,7 +8232,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C210" s="2" t="n">
@@ -8271,7 +8271,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C211" s="2" t="n">
@@ -8345,7 +8345,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C213" s="2" t="n">
@@ -8384,7 +8384,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C214" s="2" t="n">
@@ -8423,7 +8423,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C215" s="2" t="n">
@@ -8466,7 +8466,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C216" s="2" t="n">
@@ -8497,7 +8497,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C217" s="2" t="n">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C218" s="2" t="n">
@@ -8563,7 +8563,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C219" s="2" t="n">
@@ -8598,7 +8598,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C220" s="2" t="n">
@@ -8633,7 +8633,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C221" s="2" t="n">
@@ -8672,7 +8672,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C222" s="2" t="n">
@@ -8703,7 +8703,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C223" s="2" t="n">
@@ -8742,7 +8742,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C224" s="2" t="n">
@@ -8816,7 +8816,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C226" s="2" t="n">
@@ -8855,7 +8855,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C227" s="2" t="n">
@@ -8894,7 +8894,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C228" s="2" t="n">
@@ -8937,7 +8937,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C229" s="2" t="n">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C230" s="2" t="n">
@@ -9003,7 +9003,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C231" s="2" t="n">
@@ -9034,7 +9034,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C232" s="2" t="n">
@@ -9069,7 +9069,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C233" s="2" t="n">
@@ -9104,7 +9104,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C234" s="2" t="n">
@@ -9143,7 +9143,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C235" s="2" t="n">
@@ -9174,7 +9174,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C236" s="2" t="n">
@@ -9213,7 +9213,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C237" s="2" t="n">
@@ -9287,7 +9287,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C239" s="2" t="n">
@@ -9326,7 +9326,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C240" s="2" t="n">
@@ -9365,7 +9365,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C241" s="2" t="n">
@@ -9408,7 +9408,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C242" s="2" t="n">
@@ -9439,7 +9439,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C243" s="2" t="n">
@@ -9478,7 +9478,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C244" s="2" t="n">
@@ -9552,7 +9552,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C246" s="2" t="n">
@@ -9591,7 +9591,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C247" s="2" t="n">
@@ -9630,7 +9630,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C248" s="2" t="n">
@@ -9673,7 +9673,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C249" s="2" t="n">
@@ -9704,7 +9704,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C250" s="2" t="n">
@@ -9739,7 +9739,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C251" s="2" t="n">
@@ -9770,7 +9770,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C252" s="2" t="n">
@@ -9805,7 +9805,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C253" s="2" t="n">
@@ -9840,7 +9840,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C254" s="2" t="n">
@@ -9879,7 +9879,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C255" s="2" t="n">
@@ -9918,7 +9918,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C256" s="2" t="n">
@@ -9953,7 +9953,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C257" s="2" t="n">
@@ -10031,7 +10031,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C259" s="2" t="n">
@@ -10070,7 +10070,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C260" s="2" t="n">
@@ -10109,7 +10109,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C261" s="2" t="n">
@@ -10152,7 +10152,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C262" s="2" t="n">
@@ -10183,7 +10183,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C263" s="2" t="n">
@@ -10218,7 +10218,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C264" s="2" t="n">
@@ -10249,7 +10249,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C265" s="2" t="n">
@@ -10284,7 +10284,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C266" s="2" t="n">
@@ -10319,7 +10319,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C267" s="2" t="n">
@@ -10358,7 +10358,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C268" s="2" t="n">
@@ -10389,7 +10389,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C269" s="2" t="n">
@@ -10424,7 +10424,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C270" s="2" t="n">
@@ -10455,7 +10455,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C271" s="2" t="n">
@@ -10490,7 +10490,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C272" s="2" t="n">
@@ -10525,7 +10525,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C273" s="2" t="n">
@@ -10564,7 +10564,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C274" s="2" t="n">
@@ -10595,7 +10595,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C275" s="2" t="n">
@@ -10634,7 +10634,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C276" s="2" t="n">
@@ -10669,7 +10669,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C277" s="2" t="n">
@@ -10747,7 +10747,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C279" s="2" t="n">
@@ -10786,7 +10786,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C280" s="2" t="n">
@@ -10825,7 +10825,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C281" s="2" t="n">
@@ -10868,7 +10868,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C282" s="2" t="n">
@@ -10899,7 +10899,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C283" s="2" t="n">
@@ -10938,7 +10938,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C284" s="2" t="n">
@@ -11012,7 +11012,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C286" s="2" t="n">
@@ -11051,7 +11051,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C287" s="2" t="n">
@@ -11090,7 +11090,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C288" s="2" t="n">
@@ -11133,7 +11133,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C289" s="2" t="n">
@@ -11164,7 +11164,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C290" s="2" t="n">
@@ -11203,7 +11203,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C291" s="2" t="n">
@@ -11238,7 +11238,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C292" s="2" t="n">
@@ -11316,7 +11316,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C294" s="2" t="n">
@@ -11355,7 +11355,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C295" s="2" t="n">
@@ -11394,7 +11394,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C296" s="2" t="n">
@@ -11437,7 +11437,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C297" s="2" t="n">
@@ -11468,7 +11468,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C298" s="2" t="n">
@@ -11507,7 +11507,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C299" s="2" t="n">
@@ -11542,7 +11542,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C300" s="2" t="n">
@@ -11620,7 +11620,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C302" s="2" t="n">
@@ -11659,7 +11659,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C303" s="2" t="n">
@@ -11698,7 +11698,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C304" s="2" t="n">
@@ -11741,7 +11741,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C305" s="2" t="n">
@@ -11780,7 +11780,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C306" s="2" t="n">
@@ -11815,7 +11815,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C307" s="2" t="n">
@@ -11893,7 +11893,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C309" s="2" t="n">
@@ -11932,7 +11932,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C310" s="2" t="n">
@@ -11971,7 +11971,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C311" s="2" t="n">
@@ -12014,7 +12014,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C312" s="2" t="n">
@@ -12045,7 +12045,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C313" s="2" t="n">
@@ -12076,7 +12076,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C314" s="2" t="n">
@@ -12115,7 +12115,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C315" s="2" t="n">
@@ -12150,7 +12150,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C316" s="2" t="n">
@@ -12228,7 +12228,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C318" s="2" t="n">
@@ -12267,7 +12267,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C319" s="2" t="n">
@@ -12306,7 +12306,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C320" s="2" t="n">
@@ -12349,7 +12349,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C321" s="2" t="n">
@@ -12380,7 +12380,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C322" s="2" t="n">
@@ -12419,7 +12419,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C323" s="2" t="n">
@@ -12454,7 +12454,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C324" s="2" t="n">
@@ -12532,7 +12532,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C326" s="2" t="n">
@@ -12571,7 +12571,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C327" s="2" t="n">
@@ -12610,7 +12610,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C328" s="2" t="n">
@@ -12653,7 +12653,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C329" s="2" t="n">
@@ -12684,7 +12684,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C330" s="2" t="n">
@@ -12723,7 +12723,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C331" s="2" t="n">
@@ -12758,7 +12758,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C332" s="2" t="n">
@@ -12836,7 +12836,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C334" s="2" t="n">
@@ -12875,7 +12875,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C335" s="2" t="n">
@@ -12914,7 +12914,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C336" s="2" t="n">
@@ -12957,7 +12957,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C337" s="2" t="n">
@@ -12988,7 +12988,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C338" s="2" t="n">
@@ -13027,7 +13027,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C339" s="2" t="n">
@@ -13062,7 +13062,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C340" s="2" t="n">
@@ -13140,7 +13140,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C342" s="2" t="n">
@@ -13179,7 +13179,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C343" s="2" t="n">
@@ -13218,7 +13218,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C344" s="2" t="n">
@@ -13261,7 +13261,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C345" s="2" t="n">
@@ -13292,7 +13292,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C346" s="2" t="n">
@@ -13331,7 +13331,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C347" s="2" t="n">
@@ -13366,7 +13366,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C348" s="2" t="n">
@@ -13444,7 +13444,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C350" s="2" t="n">
@@ -13483,7 +13483,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C351" s="2" t="n">
@@ -13522,7 +13522,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C352" s="2" t="n">
@@ -13565,7 +13565,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C353" s="2" t="n">
@@ -13596,7 +13596,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C354" s="2" t="n">
@@ -13635,7 +13635,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C355" s="2" t="n">
@@ -13670,7 +13670,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C356" s="2" t="n">
@@ -13748,7 +13748,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C358" s="2" t="n">
@@ -13787,7 +13787,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C359" s="2" t="n">
@@ -13826,7 +13826,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C360" s="2" t="n">
@@ -13869,7 +13869,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C361" s="2" t="n">
@@ -13900,7 +13900,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C362" s="2" t="n">
@@ -13939,7 +13939,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C363" s="2" t="n">
@@ -13974,7 +13974,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C364" s="2" t="n">
@@ -14052,7 +14052,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C366" s="2" t="n">
@@ -14091,7 +14091,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C367" s="2" t="n">
@@ -14130,7 +14130,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C368" s="2" t="n">
@@ -14173,7 +14173,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C369" s="2" t="n">
@@ -14204,7 +14204,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C370" s="2" t="n">
@@ -14243,7 +14243,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C371" s="2" t="n">
@@ -14278,7 +14278,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C372" s="2" t="n">
@@ -14356,7 +14356,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C374" s="2" t="n">
@@ -14395,7 +14395,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C375" s="2" t="n">
@@ -14434,7 +14434,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C376" s="2" t="n">
@@ -14477,7 +14477,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C377" s="2" t="n">
@@ -14508,7 +14508,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C378" s="2" t="n">
@@ -14547,7 +14547,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C379" s="2" t="n">
@@ -14582,7 +14582,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C380" s="2" t="n">
@@ -14660,7 +14660,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C382" s="2" t="n">
@@ -14699,7 +14699,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C383" s="2" t="n">
@@ -14738,7 +14738,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C384" s="2" t="n">
@@ -14781,7 +14781,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C385" s="2" t="n">
@@ -14812,7 +14812,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C386" s="2" t="n">
@@ -14851,7 +14851,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C387" s="2" t="n">
@@ -14925,7 +14925,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C389" s="2" t="n">
@@ -14964,7 +14964,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C390" s="2" t="n">
@@ -15003,7 +15003,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C391" s="2" t="n">
@@ -15046,7 +15046,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C392" s="2" t="n">
@@ -15077,7 +15077,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C393" s="2" t="n">
@@ -15116,7 +15116,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C394" s="2" t="n">
@@ -15151,7 +15151,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C395" s="2" t="n">
@@ -15229,7 +15229,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C397" s="2" t="n">
@@ -15268,7 +15268,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C398" s="2" t="n">
@@ -15307,7 +15307,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C399" s="2" t="n">
@@ -15350,7 +15350,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C400" s="2" t="n">
@@ -15381,7 +15381,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C401" s="2" t="n">
@@ -15420,7 +15420,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C402" s="2" t="n">
@@ -15455,7 +15455,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C403" s="2" t="n">
@@ -15533,7 +15533,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C405" s="2" t="n">
@@ -15572,7 +15572,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C406" s="2" t="n">
@@ -15611,7 +15611,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C407" s="2" t="n">
@@ -15654,7 +15654,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C408" s="2" t="n">
@@ -15685,7 +15685,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C409" s="2" t="n">
@@ -15724,7 +15724,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C410" s="2" t="n">
@@ -15759,7 +15759,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C411" s="2" t="n">
@@ -15837,7 +15837,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C413" s="2" t="n">
@@ -15876,7 +15876,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C414" s="2" t="n">
@@ -15915,7 +15915,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C415" s="2" t="n">
@@ -15958,7 +15958,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C416" s="2" t="n">
@@ -15989,7 +15989,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C417" s="2" t="n">
@@ -16028,7 +16028,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C418" s="2" t="n">
@@ -16063,7 +16063,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C419" s="2" t="n">
@@ -16141,7 +16141,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C421" s="2" t="n">
@@ -16180,7 +16180,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C422" s="2" t="n">
@@ -16219,7 +16219,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C423" s="2" t="n">
@@ -16262,7 +16262,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C424" s="2" t="n">
@@ -16301,7 +16301,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C425" s="2" t="n">
@@ -16336,7 +16336,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C426" s="2" t="n">
@@ -16414,7 +16414,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C428" s="2" t="n">
@@ -16453,7 +16453,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C429" s="2" t="n">
@@ -16492,7 +16492,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C430" s="2" t="n">
@@ -16535,7 +16535,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C431" s="2" t="n">
@@ -16566,7 +16566,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C432" s="2" t="n">
@@ -16605,7 +16605,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C433" s="2" t="n">
@@ -16640,7 +16640,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C434" s="2" t="n">
@@ -16718,7 +16718,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C436" s="2" t="n">
@@ -16757,7 +16757,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C437" s="2" t="n">
@@ -16796,7 +16796,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C438" s="2" t="n">
@@ -16839,7 +16839,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C439" s="2" t="n">
@@ -16870,7 +16870,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C440" s="2" t="n">
@@ -16909,7 +16909,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C441" s="2" t="n">
@@ -16944,7 +16944,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C442" s="2" t="n">
@@ -17022,7 +17022,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C444" s="2" t="n">
@@ -17061,7 +17061,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C445" s="2" t="n">
@@ -17100,7 +17100,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C446" s="2" t="n">
@@ -17143,7 +17143,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C447" s="2" t="n">
@@ -17174,7 +17174,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C448" s="2" t="n">
@@ -17213,7 +17213,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C449" s="2" t="n">
@@ -17248,7 +17248,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C450" s="2" t="n">
@@ -17326,7 +17326,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C452" s="2" t="n">
@@ -17365,7 +17365,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C453" s="2" t="n">
@@ -17404,7 +17404,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C454" s="2" t="n">
@@ -17447,7 +17447,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C455" s="2" t="n">
@@ -17478,7 +17478,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C456" s="2" t="n">
@@ -17517,7 +17517,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C457" s="2" t="n">
@@ -17552,7 +17552,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C458" s="2" t="n">
@@ -17630,7 +17630,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C460" s="2" t="n">
@@ -17669,7 +17669,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C461" s="2" t="n">
@@ -17708,7 +17708,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C462" s="2" t="n">
@@ -17751,7 +17751,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C463" s="2" t="n">
@@ -17782,7 +17782,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C464" s="2" t="n">
@@ -17821,7 +17821,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C465" s="2" t="n">
@@ -17856,7 +17856,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C466" s="2" t="n">
@@ -17934,7 +17934,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C468" s="2" t="n">
@@ -17973,7 +17973,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C469" s="2" t="n">
@@ -18012,7 +18012,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C470" s="2" t="n">
@@ -18055,7 +18055,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C471" s="2" t="n">
@@ -18086,7 +18086,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C472" s="2" t="n">
@@ -18125,7 +18125,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C473" s="2" t="n">
@@ -18160,7 +18160,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C474" s="2" t="n">
@@ -18238,7 +18238,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C476" s="2" t="n">
@@ -18277,7 +18277,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C477" s="2" t="n">
@@ -18316,7 +18316,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C478" s="2" t="n">
@@ -18359,7 +18359,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C479" s="2" t="n">
@@ -18390,7 +18390,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C480" s="2" t="n">
@@ -18429,7 +18429,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C481" s="2" t="n">
@@ -18464,7 +18464,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C482" s="2" t="n">
@@ -18542,7 +18542,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C484" s="2" t="n">
@@ -18581,7 +18581,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C485" s="2" t="n">
@@ -18620,7 +18620,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C486" s="2" t="n">
@@ -18663,7 +18663,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C487" s="2" t="n">
@@ -18702,7 +18702,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C488" s="2" t="n">
@@ -18737,7 +18737,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C489" s="2" t="n">
@@ -18815,7 +18815,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C491" s="2" t="n">
@@ -18854,7 +18854,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C492" s="2" t="n">
@@ -18893,7 +18893,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C493" s="2" t="n">
@@ -18936,7 +18936,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C494" s="2" t="n">
@@ -18975,7 +18975,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C495" s="2" t="n">
@@ -19010,7 +19010,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C496" s="2" t="n">
@@ -19088,7 +19088,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C498" s="2" t="n">
@@ -19127,7 +19127,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C499" s="2" t="n">
@@ -19166,7 +19166,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C500" s="2" t="n">
@@ -19209,7 +19209,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C501" s="2" t="n">
@@ -19240,7 +19240,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C502" s="2" t="n">
@@ -19279,7 +19279,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C503" s="2" t="n">
@@ -19314,7 +19314,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C504" s="2" t="n">
@@ -19392,7 +19392,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C506" s="2" t="n">
@@ -19431,7 +19431,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C507" s="2" t="n">
@@ -19470,7 +19470,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C508" s="2" t="n">
@@ -19513,7 +19513,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C509" s="2" t="n">
@@ -19544,7 +19544,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C510" s="2" t="n">
@@ -19583,7 +19583,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C511" s="2" t="n">
@@ -19618,7 +19618,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C512" s="2" t="n">
@@ -19696,7 +19696,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C514" s="2" t="n">
@@ -19735,7 +19735,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C515" s="2" t="n">
@@ -19774,7 +19774,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C516" s="2" t="n">
@@ -19817,7 +19817,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C517" s="2" t="n">
@@ -19848,7 +19848,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C518" s="2" t="n">
@@ -19887,7 +19887,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C519" s="2" t="n">
@@ -19922,7 +19922,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C520" s="2" t="n">
@@ -20000,7 +20000,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C522" s="2" t="n">
@@ -20039,7 +20039,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C523" s="2" t="n">
@@ -20078,7 +20078,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C524" s="2" t="n">
@@ -20121,7 +20121,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C525" s="2" t="n">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C526" s="2" t="n">
@@ -20191,7 +20191,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C527" s="2" t="n">
@@ -20226,7 +20226,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C528" s="2" t="n">
@@ -20304,7 +20304,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C530" s="2" t="n">
@@ -20343,7 +20343,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C531" s="2" t="n">
@@ -20382,7 +20382,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C532" s="2" t="n">
@@ -20425,7 +20425,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C533" s="2" t="n">
@@ -20456,7 +20456,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C534" s="2" t="n">
@@ -20495,7 +20495,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C535" s="2" t="n">
@@ -20530,7 +20530,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C536" s="2" t="n">
@@ -20608,7 +20608,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C538" s="2" t="n">
@@ -20647,7 +20647,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C539" s="2" t="n">
@@ -20686,7 +20686,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C540" s="2" t="n">
@@ -20729,7 +20729,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C541" s="2" t="n">
@@ -20760,7 +20760,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C542" s="2" t="n">
@@ -20799,7 +20799,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C543" s="2" t="n">
@@ -20834,7 +20834,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C544" s="2" t="n">
@@ -20912,7 +20912,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C546" s="2" t="n">
@@ -20951,7 +20951,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C547" s="2" t="n">
@@ -20990,7 +20990,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C548" s="2" t="n">
@@ -21033,7 +21033,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C549" s="2" t="n">
@@ -21064,7 +21064,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C550" s="2" t="n">
@@ -21103,7 +21103,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C551" s="2" t="n">
@@ -21138,7 +21138,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C552" s="2" t="n">
@@ -21216,7 +21216,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C554" s="2" t="n">
@@ -21255,7 +21255,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C555" s="2" t="n">
@@ -21294,7 +21294,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C556" s="2" t="n">
@@ -21337,7 +21337,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C557" s="2" t="n">
@@ -21368,7 +21368,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C558" s="2" t="n">
@@ -21407,7 +21407,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C559" s="2" t="n">
@@ -21442,7 +21442,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C560" s="2" t="n">
@@ -21520,7 +21520,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C562" s="2" t="n">
@@ -21559,7 +21559,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C563" s="2" t="n">
@@ -21598,7 +21598,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C564" s="2" t="n">
@@ -21641,7 +21641,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C565" s="2" t="n">
@@ -21672,7 +21672,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C566" s="2" t="n">
@@ -21711,7 +21711,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C567" s="2" t="n">
@@ -21746,7 +21746,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C568" s="2" t="n">
@@ -21824,7 +21824,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C570" s="2" t="n">
@@ -21863,7 +21863,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C571" s="2" t="n">
@@ -21902,7 +21902,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C572" s="2" t="n">
@@ -21945,7 +21945,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C573" s="2" t="n">
@@ -21976,7 +21976,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C574" s="2" t="n">
@@ -22015,7 +22015,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C575" s="2" t="n">
@@ -22050,7 +22050,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C576" s="2" t="n">
@@ -22128,7 +22128,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C578" s="2" t="n">
@@ -22167,7 +22167,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C579" s="2" t="n">
@@ -22206,7 +22206,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C580" s="2" t="n">
@@ -22249,7 +22249,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C581" s="2" t="n">
@@ -22280,7 +22280,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C582" s="2" t="n">
@@ -22319,7 +22319,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C583" s="2" t="n">
@@ -22354,7 +22354,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C584" s="2" t="n">
@@ -22432,7 +22432,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C586" s="2" t="n">
@@ -22471,7 +22471,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C587" s="2" t="n">
@@ -22510,7 +22510,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C588" s="2" t="n">
@@ -22553,7 +22553,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C589" s="2" t="n">
@@ -22584,7 +22584,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C590" s="2" t="n">
@@ -22615,7 +22615,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C591" s="2" t="n">
@@ -22646,7 +22646,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C592" s="2" t="n">
@@ -22677,7 +22677,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C593" s="2" t="n">
@@ -22708,7 +22708,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C594" s="2" t="n">
@@ -22739,7 +22739,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C595" s="2" t="n">
@@ -22770,7 +22770,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C596" s="2" t="n">
@@ -22801,7 +22801,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C597" s="2" t="n">
@@ -22832,7 +22832,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C598" s="2" t="n">
@@ -22863,7 +22863,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C599" s="2" t="n">
@@ -22894,7 +22894,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C600" s="2" t="n">
@@ -22925,7 +22925,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C601" s="2" t="n">
@@ -22956,7 +22956,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C602" s="2" t="n">
@@ -22987,7 +22987,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C603" s="2" t="n">
@@ -23018,7 +23018,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C604" s="2" t="n">
@@ -23049,7 +23049,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C605" s="2" t="n">
@@ -23080,7 +23080,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C606" s="2" t="n">
@@ -23111,7 +23111,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C607" s="2" t="n">
@@ -23154,7 +23154,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C608" s="2" t="n">
@@ -23193,7 +23193,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C609" s="2" t="n">
@@ -23271,7 +23271,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C611" s="2" t="n">
@@ -23314,7 +23314,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C612" s="2" t="n">
@@ -23357,7 +23357,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C613" s="2" t="n">
@@ -23400,7 +23400,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C614" s="2" t="n">
@@ -23431,7 +23431,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C615" s="2" t="n">
@@ -23474,7 +23474,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C616" s="2" t="n">
@@ -23513,7 +23513,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C617" s="2" t="n">
@@ -23591,7 +23591,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C619" s="2" t="n">
@@ -23634,7 +23634,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C620" s="2" t="n">
@@ -23677,7 +23677,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C621" s="2" t="n">
@@ -23720,7 +23720,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C622" s="2" t="n">
@@ -23763,7 +23763,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C623" s="2" t="n">
@@ -23802,7 +23802,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C624" s="2" t="n">
@@ -23880,7 +23880,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C626" s="2" t="n">
@@ -23923,7 +23923,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C627" s="2" t="n">
@@ -23966,7 +23966,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C628" s="2" t="n">
@@ -24009,7 +24009,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C629" s="2" t="n">
@@ -24040,7 +24040,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C630" s="2" t="n">
@@ -24083,7 +24083,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C631" s="2" t="n">
@@ -24122,7 +24122,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C632" s="2" t="n">
@@ -24200,7 +24200,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C634" s="2" t="n">
@@ -24243,7 +24243,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C635" s="2" t="n">
@@ -24286,7 +24286,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C636" s="2" t="n">
@@ -24329,7 +24329,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C637" s="2" t="n">
@@ -24360,7 +24360,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C638" s="2" t="n">
@@ -24403,7 +24403,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C639" s="2" t="n">
@@ -24442,7 +24442,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C640" s="2" t="n">
@@ -24520,7 +24520,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C642" s="2" t="n">
@@ -24563,7 +24563,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C643" s="2" t="n">
@@ -24606,7 +24606,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C644" s="2" t="n">
@@ -24649,7 +24649,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C645" s="2" t="n">
@@ -24680,7 +24680,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C646" s="2" t="n">
@@ -24723,7 +24723,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C647" s="2" t="n">
@@ -24762,7 +24762,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C648" s="2" t="n">
@@ -24840,7 +24840,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C650" s="2" t="n">
@@ -24883,7 +24883,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C651" s="2" t="n">
@@ -24926,7 +24926,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C652" s="2" t="n">
@@ -24969,7 +24969,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C653" s="2" t="n">
@@ -25000,7 +25000,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C654" s="2" t="n">
@@ -25031,7 +25031,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C655" s="2" t="n">
@@ -25074,7 +25074,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C656" s="2" t="n">
@@ -25113,7 +25113,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C657" s="2" t="n">
@@ -25191,7 +25191,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C659" s="2" t="n">
@@ -25234,7 +25234,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C660" s="2" t="n">
@@ -25277,7 +25277,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C661" s="2" t="n">
@@ -25320,7 +25320,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C662" s="2" t="n">
@@ -25359,7 +25359,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C663" s="2" t="n">
@@ -25398,7 +25398,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C664" s="2" t="n">
@@ -25441,7 +25441,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C665" s="2" t="n">
@@ -25480,7 +25480,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C666" s="2" t="n">
@@ -25558,7 +25558,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C668" s="2" t="n">
@@ -25601,7 +25601,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C669" s="2" t="n">
@@ -25644,7 +25644,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C670" s="2" t="n">
@@ -25687,7 +25687,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C671" s="2" t="n">
@@ -25726,7 +25726,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C672" s="2" t="n">
@@ -25765,7 +25765,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C673" s="2" t="n">
@@ -25808,7 +25808,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C674" s="2" t="n">
@@ -25847,7 +25847,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C675" s="2" t="n">
@@ -25925,7 +25925,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C677" s="2" t="n">
@@ -25968,7 +25968,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C678" s="2" t="n">
@@ -26011,7 +26011,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C679" s="2" t="n">
@@ -26054,7 +26054,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C680" s="2" t="n">
@@ -26093,7 +26093,7 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C681" s="2" t="n">
@@ -26132,7 +26132,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C682" s="2" t="n">
@@ -26175,7 +26175,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C683" s="2" t="n">
@@ -26214,7 +26214,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C684" s="2" t="n">
@@ -26292,7 +26292,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C686" s="2" t="n">
@@ -26335,7 +26335,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C687" s="2" t="n">
@@ -26378,7 +26378,7 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C688" s="2" t="n">
@@ -26421,7 +26421,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C689" s="2" t="n">
@@ -26460,7 +26460,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C690" s="2" t="n">
@@ -26499,7 +26499,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C691" s="2" t="n">
@@ -26542,7 +26542,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C692" s="2" t="n">
@@ -26581,7 +26581,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C693" s="2" t="n">
@@ -26659,7 +26659,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C695" s="2" t="n">
@@ -26702,7 +26702,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C696" s="2" t="n">
@@ -26745,7 +26745,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C697" s="2" t="n">
@@ -26788,7 +26788,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C698" s="2" t="n">
@@ -26827,7 +26827,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C699" s="2" t="n">
@@ -26866,7 +26866,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C700" s="2" t="n">
@@ -26897,7 +26897,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C701" s="2" t="n">
@@ -26940,7 +26940,7 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C702" s="2" t="n">
@@ -26979,7 +26979,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C703" s="2" t="n">
@@ -27057,7 +27057,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C705" s="2" t="n">
@@ -27100,7 +27100,7 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C706" s="2" t="n">
@@ -27143,7 +27143,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C707" s="2" t="n">
@@ -27186,7 +27186,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C708" s="2" t="n">
@@ -27225,7 +27225,7 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C709" s="2" t="n">
@@ -27264,7 +27264,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C710" s="2" t="n">
@@ -27295,7 +27295,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C711" s="2" t="n">
@@ -27338,7 +27338,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C712" s="2" t="n">
@@ -27377,7 +27377,7 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C713" s="2" t="n">
@@ -27455,7 +27455,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C715" s="2" t="n">
@@ -27498,7 +27498,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C716" s="2" t="n">
@@ -27541,7 +27541,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C717" s="2" t="n">
@@ -27584,7 +27584,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C718" s="2" t="n">
@@ -27623,7 +27623,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C719" s="2" t="n">
@@ -27662,7 +27662,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C720" s="2" t="n">
@@ -27693,7 +27693,7 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C721" s="2" t="n">
@@ -27736,7 +27736,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C722" s="2" t="n">
@@ -27775,7 +27775,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C723" s="2" t="n">
@@ -27853,7 +27853,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C725" s="2" t="n">
@@ -27896,7 +27896,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C726" s="2" t="n">
@@ -27939,7 +27939,7 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C727" s="2" t="n">
@@ -27982,7 +27982,7 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C728" s="2" t="n">
@@ -28021,7 +28021,7 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C729" s="2" t="n">
@@ -28060,7 +28060,7 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C730" s="2" t="n">
@@ -28091,7 +28091,7 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C731" s="2" t="n">
@@ -28134,7 +28134,7 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C732" s="2" t="n">
@@ -28173,7 +28173,7 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C733" s="2" t="n">
@@ -28251,7 +28251,7 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C735" s="2" t="n">
@@ -28294,7 +28294,7 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C736" s="2" t="n">
@@ -28337,7 +28337,7 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C737" s="2" t="n">
@@ -28380,7 +28380,7 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C738" s="2" t="n">
@@ -28419,7 +28419,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C739" s="2" t="n">
@@ -28458,7 +28458,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C740" s="2" t="n">
@@ -28489,7 +28489,7 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C741" s="2" t="n">
@@ -28532,7 +28532,7 @@
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C742" s="2" t="n">
@@ -28571,7 +28571,7 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C743" s="2" t="n">
@@ -28649,7 +28649,7 @@
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C745" s="2" t="n">
@@ -28692,7 +28692,7 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C746" s="2" t="n">
@@ -28735,7 +28735,7 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C747" s="2" t="n">
@@ -28778,7 +28778,7 @@
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C748" s="2" t="n">
@@ -28817,7 +28817,7 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C749" s="2" t="n">
@@ -28856,7 +28856,7 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C750" s="2" t="n">
@@ -28887,7 +28887,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C751" s="2" t="n">
@@ -28930,7 +28930,7 @@
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C752" s="2" t="n">
@@ -28969,7 +28969,7 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C753" s="2" t="n">
@@ -29047,7 +29047,7 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C755" s="2" t="n">
@@ -29090,7 +29090,7 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C756" s="2" t="n">
@@ -29133,7 +29133,7 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C757" s="2" t="n">
@@ -29176,7 +29176,7 @@
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C758" s="2" t="n">
@@ -29215,7 +29215,7 @@
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C759" s="2" t="n">
@@ -29254,7 +29254,7 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C760" s="2" t="n">
@@ -29285,7 +29285,7 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C761" s="2" t="n">
@@ -29328,7 +29328,7 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C762" s="2" t="n">
@@ -29367,7 +29367,7 @@
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C763" s="2" t="n">
@@ -29445,7 +29445,7 @@
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C765" s="2" t="n">
@@ -29488,7 +29488,7 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C766" s="2" t="n">
@@ -29531,7 +29531,7 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C767" s="2" t="n">
@@ -29574,7 +29574,7 @@
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C768" s="2" t="n">
@@ -29613,7 +29613,7 @@
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C769" s="2" t="n">
@@ -29652,7 +29652,7 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C770" s="2" t="n">
@@ -29683,7 +29683,7 @@
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C771" s="2" t="n">
@@ -29726,7 +29726,7 @@
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C772" s="2" t="n">
@@ -29765,7 +29765,7 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C773" s="2" t="n">
@@ -29843,7 +29843,7 @@
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C775" s="2" t="n">
@@ -29886,7 +29886,7 @@
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C776" s="2" t="n">
@@ -29929,7 +29929,7 @@
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C777" s="2" t="n">
@@ -29972,7 +29972,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C778" s="2" t="n">
@@ -30011,7 +30011,7 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C779" s="2" t="n">
@@ -30050,7 +30050,7 @@
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C780" s="2" t="n">
@@ -30081,7 +30081,7 @@
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C781" s="2" t="n">
@@ -30124,7 +30124,7 @@
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C782" s="2" t="n">
@@ -30163,7 +30163,7 @@
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C783" s="2" t="n">
@@ -30241,7 +30241,7 @@
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C785" s="2" t="n">
@@ -30284,7 +30284,7 @@
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C786" s="2" t="n">
@@ -30327,7 +30327,7 @@
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C787" s="2" t="n">
@@ -30370,7 +30370,7 @@
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C788" s="2" t="n">
@@ -30409,7 +30409,7 @@
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C789" s="2" t="n">
@@ -30448,7 +30448,7 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C790" s="2" t="n">
@@ -30479,7 +30479,7 @@
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C791" s="2" t="n">
@@ -30522,7 +30522,7 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C792" s="2" t="n">
@@ -30561,7 +30561,7 @@
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C793" s="2" t="n">
@@ -30639,7 +30639,7 @@
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C795" s="2" t="n">
@@ -30682,7 +30682,7 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C796" s="2" t="n">
@@ -30725,7 +30725,7 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C797" s="2" t="n">
@@ -30768,7 +30768,7 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C798" s="2" t="n">
@@ -30807,7 +30807,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C799" s="2" t="n">
@@ -30846,7 +30846,7 @@
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C800" s="2" t="n">
@@ -30877,7 +30877,7 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C801" s="2" t="n">
@@ -30920,7 +30920,7 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C802" s="2" t="n">
@@ -30959,7 +30959,7 @@
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C803" s="2" t="n">
@@ -31037,7 +31037,7 @@
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C805" s="2" t="n">
@@ -31080,7 +31080,7 @@
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C806" s="2" t="n">
@@ -31123,7 +31123,7 @@
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C807" s="2" t="n">
@@ -31166,7 +31166,7 @@
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C808" s="2" t="n">
@@ -31205,7 +31205,7 @@
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C809" s="2" t="n">
@@ -31244,7 +31244,7 @@
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C810" s="2" t="n">
@@ -31275,7 +31275,7 @@
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C811" s="2" t="n">
@@ -31318,7 +31318,7 @@
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C812" s="2" t="n">
@@ -31357,7 +31357,7 @@
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C813" s="2" t="n">
@@ -31435,7 +31435,7 @@
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C815" s="2" t="n">
@@ -31478,7 +31478,7 @@
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C816" s="2" t="n">
@@ -31521,7 +31521,7 @@
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C817" s="2" t="n">
@@ -31564,7 +31564,7 @@
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C818" s="2" t="n">
@@ -31603,7 +31603,7 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C819" s="2" t="n">
@@ -31642,7 +31642,7 @@
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C820" s="2" t="n">
@@ -31673,7 +31673,7 @@
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C821" s="2" t="n">
@@ -31716,7 +31716,7 @@
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C822" s="2" t="n">
@@ -31755,7 +31755,7 @@
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C823" s="2" t="n">
@@ -31833,7 +31833,7 @@
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C825" s="2" t="n">
@@ -31876,7 +31876,7 @@
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C826" s="2" t="n">
@@ -31919,7 +31919,7 @@
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C827" s="2" t="n">
@@ -31962,7 +31962,7 @@
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C828" s="2" t="n">
@@ -32001,7 +32001,7 @@
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C829" s="2" t="n">
@@ -32040,7 +32040,7 @@
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C830" s="2" t="n">
@@ -32071,7 +32071,7 @@
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C831" s="2" t="n">
@@ -32114,7 +32114,7 @@
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C832" s="2" t="n">
@@ -32153,7 +32153,7 @@
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C833" s="2" t="n">
@@ -32231,7 +32231,7 @@
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C835" s="2" t="n">
@@ -32274,7 +32274,7 @@
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C836" s="2" t="n">
@@ -32317,7 +32317,7 @@
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C837" s="2" t="n">
@@ -32360,7 +32360,7 @@
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C838" s="2" t="n">
@@ -32399,7 +32399,7 @@
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C839" s="2" t="n">
@@ -32438,7 +32438,7 @@
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C840" s="2" t="n">
@@ -32469,7 +32469,7 @@
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C841" s="2" t="n">
@@ -32512,7 +32512,7 @@
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C842" s="2" t="n">
@@ -32551,7 +32551,7 @@
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C843" s="2" t="n">
@@ -32629,7 +32629,7 @@
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C845" s="2" t="n">
@@ -32672,7 +32672,7 @@
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C846" s="2" t="n">
@@ -32715,7 +32715,7 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C847" s="2" t="n">
@@ -32758,7 +32758,7 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C848" s="2" t="n">
@@ -32797,7 +32797,7 @@
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C849" s="2" t="n">
@@ -32836,7 +32836,7 @@
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C850" s="2" t="n">
@@ -32867,7 +32867,7 @@
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C851" s="2" t="n">
@@ -32910,7 +32910,7 @@
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C852" s="2" t="n">
@@ -32949,7 +32949,7 @@
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C853" s="2" t="n">
@@ -33027,7 +33027,7 @@
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C855" s="2" t="n">
@@ -33070,7 +33070,7 @@
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C856" s="2" t="n">
@@ -33113,7 +33113,7 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C857" s="2" t="n">
@@ -33156,7 +33156,7 @@
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C858" s="2" t="n">
@@ -33195,7 +33195,7 @@
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C859" s="2" t="n">
@@ -33234,7 +33234,7 @@
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C860" s="2" t="n">
@@ -33265,7 +33265,7 @@
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C861" s="2" t="n">
@@ -33308,7 +33308,7 @@
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C862" s="2" t="n">
@@ -33347,7 +33347,7 @@
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C863" s="2" t="n">
@@ -33425,7 +33425,7 @@
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C865" s="2" t="n">
@@ -33468,7 +33468,7 @@
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C866" s="2" t="n">
@@ -33511,7 +33511,7 @@
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C867" s="2" t="n">
@@ -33554,7 +33554,7 @@
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C868" s="2" t="n">
@@ -33593,7 +33593,7 @@
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C869" s="2" t="n">
@@ -33632,7 +33632,7 @@
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C870" s="2" t="n">
@@ -33663,7 +33663,7 @@
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C871" s="2" t="n">
@@ -33694,7 +33694,7 @@
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C872" s="2" t="n">
@@ -33737,7 +33737,7 @@
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C873" s="2" t="n">
@@ -33776,7 +33776,7 @@
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C874" s="2" t="n">
@@ -33854,7 +33854,7 @@
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C876" s="2" t="n">
@@ -33897,7 +33897,7 @@
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C877" s="2" t="n">
@@ -33940,7 +33940,7 @@
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C878" s="2" t="n">
@@ -33983,7 +33983,7 @@
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C879" s="2" t="n">
@@ -34022,7 +34022,7 @@
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C880" s="2" t="n">
@@ -34061,7 +34061,7 @@
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C881" s="2" t="n">
@@ -34092,7 +34092,7 @@
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C882" s="2" t="n">
@@ -34135,7 +34135,7 @@
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C883" s="2" t="n">
@@ -34174,7 +34174,7 @@
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C884" s="2" t="n">
@@ -34252,7 +34252,7 @@
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C886" s="2" t="n">
@@ -34295,7 +34295,7 @@
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C887" s="2" t="n">
@@ -34338,7 +34338,7 @@
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C888" s="2" t="n">
@@ -34381,7 +34381,7 @@
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C889" s="2" t="n">
@@ -34420,7 +34420,7 @@
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C890" s="2" t="n">
@@ -34459,7 +34459,7 @@
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C891" s="2" t="n">
@@ -34490,7 +34490,7 @@
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C892" s="2" t="n">
@@ -34533,7 +34533,7 @@
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C893" s="2" t="n">
@@ -34572,7 +34572,7 @@
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C894" s="2" t="n">
@@ -34650,7 +34650,7 @@
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C896" s="2" t="n">
@@ -34693,7 +34693,7 @@
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C897" s="2" t="n">
@@ -34736,7 +34736,7 @@
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C898" s="2" t="n">
@@ -34779,7 +34779,7 @@
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C899" s="2" t="n">
@@ -34818,7 +34818,7 @@
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C900" s="2" t="n">
@@ -34857,7 +34857,7 @@
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C901" s="2" t="n">
@@ -34900,7 +34900,7 @@
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C902" s="2" t="n">
@@ -34939,7 +34939,7 @@
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C903" s="2" t="n">
@@ -35017,7 +35017,7 @@
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C905" s="2" t="n">
@@ -35060,7 +35060,7 @@
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C906" s="2" t="n">
@@ -35103,7 +35103,7 @@
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C907" s="2" t="n">
@@ -35146,7 +35146,7 @@
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C908" s="2" t="n">
@@ -35185,7 +35185,7 @@
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C909" s="2" t="n">
@@ -35224,7 +35224,7 @@
       </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C910" s="2" t="n">
@@ -35255,7 +35255,7 @@
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C911" s="2" t="n">
@@ -35298,7 +35298,7 @@
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C912" s="2" t="n">
@@ -35337,7 +35337,7 @@
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C913" s="2" t="n">
@@ -35415,7 +35415,7 @@
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C915" s="2" t="n">
@@ -35458,7 +35458,7 @@
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C916" s="2" t="n">
@@ -35501,7 +35501,7 @@
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C917" s="2" t="n">
@@ -35544,7 +35544,7 @@
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C918" s="2" t="n">
@@ -35583,7 +35583,7 @@
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C919" s="2" t="n">
@@ -35622,7 +35622,7 @@
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C920" s="2" t="n">
@@ -35653,7 +35653,7 @@
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C921" s="2" t="n">
@@ -35696,7 +35696,7 @@
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C922" s="2" t="n">
@@ -35735,7 +35735,7 @@
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C923" s="2" t="n">
@@ -35813,7 +35813,7 @@
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C925" s="2" t="n">
@@ -35856,7 +35856,7 @@
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C926" s="2" t="n">
@@ -35899,7 +35899,7 @@
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C927" s="2" t="n">
@@ -35942,7 +35942,7 @@
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C928" s="2" t="n">
@@ -35981,7 +35981,7 @@
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C929" s="2" t="n">
@@ -36020,7 +36020,7 @@
       </c>
       <c r="B930" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C930" s="2" t="n">
@@ -36051,7 +36051,7 @@
       </c>
       <c r="B931" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C931" s="2" t="n">
@@ -36094,7 +36094,7 @@
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C932" s="2" t="n">
@@ -36133,7 +36133,7 @@
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C933" s="2" t="n">
@@ -36211,7 +36211,7 @@
       </c>
       <c r="B935" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C935" s="2" t="n">
@@ -36254,7 +36254,7 @@
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C936" s="2" t="n">
@@ -36297,7 +36297,7 @@
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C937" s="2" t="n">
@@ -36340,7 +36340,7 @@
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C938" s="2" t="n">
@@ -36379,7 +36379,7 @@
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C939" s="2" t="n">
@@ -36418,7 +36418,7 @@
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C940" s="2" t="n">
@@ -36461,7 +36461,7 @@
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C941" s="2" t="n">
@@ -36500,7 +36500,7 @@
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C942" s="2" t="n">
@@ -36578,7 +36578,7 @@
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C944" s="2" t="n">
@@ -36621,7 +36621,7 @@
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C945" s="2" t="n">
@@ -36664,7 +36664,7 @@
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C946" s="2" t="n">
@@ -36707,7 +36707,7 @@
       </c>
       <c r="B947" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C947" s="2" t="n">
@@ -36746,7 +36746,7 @@
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C948" s="2" t="n">
@@ -36785,7 +36785,7 @@
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C949" s="2" t="n">
@@ -36816,7 +36816,7 @@
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C950" s="2" t="n">
@@ -36847,7 +36847,7 @@
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C951" s="2" t="n">
@@ -36890,7 +36890,7 @@
       </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C952" s="2" t="n">
@@ -36929,7 +36929,7 @@
       </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C953" s="2" t="n">
@@ -37007,7 +37007,7 @@
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C955" s="2" t="n">
@@ -37050,7 +37050,7 @@
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C956" s="2" t="n">
@@ -37093,7 +37093,7 @@
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C957" s="2" t="n">
@@ -37136,7 +37136,7 @@
       </c>
       <c r="B958" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C958" s="2" t="n">
@@ -37175,7 +37175,7 @@
       </c>
       <c r="B959" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C959" s="2" t="n">
@@ -37214,7 +37214,7 @@
       </c>
       <c r="B960" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C960" s="2" t="n">
@@ -37245,7 +37245,7 @@
       </c>
       <c r="B961" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C961" s="2" t="n">
@@ -37288,7 +37288,7 @@
       </c>
       <c r="B962" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C962" s="2" t="n">
@@ -37327,7 +37327,7 @@
       </c>
       <c r="B963" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C963" s="2" t="n">
@@ -37405,7 +37405,7 @@
       </c>
       <c r="B965" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C965" s="2" t="n">
@@ -37448,7 +37448,7 @@
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C966" s="2" t="n">
@@ -37491,7 +37491,7 @@
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C967" s="2" t="n">
@@ -37534,7 +37534,7 @@
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C968" s="2" t="n">
@@ -37573,7 +37573,7 @@
       </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C969" s="2" t="n">
@@ -37612,7 +37612,7 @@
       </c>
       <c r="B970" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C970" s="2" t="n">
@@ -37643,7 +37643,7 @@
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C971" s="2" t="n">
@@ -37686,7 +37686,7 @@
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C972" s="2" t="n">
@@ -37725,7 +37725,7 @@
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C973" s="2" t="n">
@@ -37803,7 +37803,7 @@
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C975" s="2" t="n">
@@ -37846,7 +37846,7 @@
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C976" s="2" t="n">
@@ -37889,7 +37889,7 @@
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C977" s="2" t="n">
@@ -37932,7 +37932,7 @@
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C978" s="2" t="n">
@@ -37971,7 +37971,7 @@
       </c>
       <c r="B979" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C979" s="2" t="n">

--- a/data/Rivers/MangatepopoatdsIntake_106f8d2943.xlsx
+++ b/data/Rivers/MangatepopoatdsIntake_106f8d2943.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I979"/>
+  <dimension ref="A1:I1099"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,7 +742,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.032</t>
+          <t>0.0325</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.016</t>
+          <t>0.0165</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.009</t>
+          <t>0.0085</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.017</t>
+          <t>0.0170</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1697,7 +1697,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.024</t>
+          <t>0.0245</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1919,7 +1919,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>&lt;0.009</t>
+          <t>&lt;0.0090</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2230,7 +2230,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.023</t>
+          <t>0.0225</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.029</t>
+          <t>0.0290</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.030</t>
+          <t>0.0300</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2982,7 +2982,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0.038</t>
+          <t>0.0380</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3188,7 +3188,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0.025</t>
+          <t>0.0250</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3394,7 +3394,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0.021</t>
+          <t>0.0210</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0.024</t>
+          <t>0.0240</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>0.014</t>
+          <t>0.0140</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4193,7 +4193,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>0.011</t>
+          <t>0.0110</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4403,7 +4403,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>0.019</t>
+          <t>0.0186</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4578,7 +4578,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>0.151</t>
+          <t>0.1510</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -4839,7 +4839,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>&lt;0.012</t>
+          <t>&lt;0.0120</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -5104,7 +5104,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>0.012</t>
+          <t>0.0115</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5369,7 +5369,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>0.030</t>
+          <t>0.0300</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -5634,7 +5634,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>0.025</t>
+          <t>0.0250</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>0.061</t>
+          <t>0.0610</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -6105,7 +6105,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>0.026</t>
+          <t>0.0260</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -6370,7 +6370,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>0.027</t>
+          <t>0.0270</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -6635,7 +6635,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>0.026</t>
+          <t>0.0260</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>0.011</t>
+          <t>0.0106</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -7110,7 +7110,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>0.008</t>
+          <t>0.0077</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -7371,7 +7371,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -7636,7 +7636,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -7901,7 +7901,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>0.009</t>
+          <t>0.0093</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -8166,7 +8166,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>0.005</t>
+          <t>0.0046</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -8431,7 +8431,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>0.013</t>
+          <t>0.0130</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -8641,7 +8641,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>0.019</t>
+          <t>0.0186</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -8902,7 +8902,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>0.020</t>
+          <t>0.0202</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>0.013</t>
+          <t>0.0128</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -9373,7 +9373,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>0.029</t>
+          <t>0.0285</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -9638,7 +9638,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>0.021</t>
+          <t>0.0210</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -9848,7 +9848,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>0.011</t>
+          <t>0.0112</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -10117,7 +10117,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>0.013</t>
+          <t>0.0133</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
@@ -10327,7 +10327,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.0014</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -10533,7 +10533,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>0.009</t>
+          <t>0.0090</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -10833,7 +10833,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>0.004</t>
+          <t>0.0036</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -11098,7 +11098,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>0.017</t>
+          <t>0.0174</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -11402,7 +11402,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>0.0015</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
@@ -11706,7 +11706,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>0.035</t>
+          <t>0.0347</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
@@ -11979,7 +11979,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>0.038</t>
+          <t>0.0376</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
@@ -12314,7 +12314,7 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>0.047</t>
+          <t>0.0466</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
@@ -12618,7 +12618,7 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>0.013</t>
+          <t>0.0129</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
@@ -12922,7 +12922,7 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>0.014</t>
+          <t>0.0137</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
@@ -13226,7 +13226,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>0.027</t>
+          <t>0.0271</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
@@ -13530,7 +13530,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.0010</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
@@ -13834,7 +13834,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>&lt;0.014</t>
+          <t>&lt;0.0140</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
@@ -14138,7 +14138,7 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>&lt;0.014</t>
+          <t>&lt;0.0140</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
@@ -14442,7 +14442,7 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>0.009</t>
+          <t>0.0090</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
@@ -14746,7 +14746,7 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>0.037</t>
+          <t>0.0370</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
@@ -15011,7 +15011,7 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>0.083</t>
+          <t>0.0830</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
@@ -15315,7 +15315,7 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>&lt;0.014</t>
+          <t>&lt;0.0140</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
@@ -15619,7 +15619,7 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>0.043</t>
+          <t>0.0430</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
@@ -15923,7 +15923,7 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>0.025</t>
+          <t>0.0250</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
@@ -16227,7 +16227,7 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>&lt;0.014</t>
+          <t>&lt;0.0140</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
@@ -16500,7 +16500,7 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>&lt;0.014</t>
+          <t>&lt;0.0140</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
@@ -16804,7 +16804,7 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>&lt;0.014</t>
+          <t>&lt;0.0140</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
@@ -17108,7 +17108,7 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>0.011</t>
+          <t>0.0110</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
@@ -17412,7 +17412,7 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>&lt;0.014</t>
+          <t>&lt;0.0140</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
@@ -17716,7 +17716,7 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>0.009</t>
+          <t>0.0090</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
@@ -18020,7 +18020,7 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>0.009</t>
+          <t>0.0090</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
@@ -18324,7 +18324,7 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>0.021</t>
+          <t>0.0210</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
@@ -18628,7 +18628,7 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>0.014</t>
+          <t>0.0140</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
@@ -18901,7 +18901,7 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>0.024</t>
+          <t>0.0240</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
@@ -19174,7 +19174,7 @@
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>0.034</t>
+          <t>0.0340</t>
         </is>
       </c>
       <c r="E500" t="inlineStr">
@@ -19478,7 +19478,7 @@
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>0.024</t>
+          <t>0.0240</t>
         </is>
       </c>
       <c r="E508" t="inlineStr">
@@ -19782,7 +19782,7 @@
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>0.025</t>
+          <t>0.0250</t>
         </is>
       </c>
       <c r="E516" t="inlineStr">
@@ -20086,7 +20086,7 @@
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>0.015</t>
+          <t>0.0150</t>
         </is>
       </c>
       <c r="E524" t="inlineStr">
@@ -20390,7 +20390,7 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>&lt;0.014</t>
+          <t>&lt;0.0140</t>
         </is>
       </c>
       <c r="E532" t="inlineStr">
@@ -20694,7 +20694,7 @@
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>0.012</t>
+          <t>0.0120</t>
         </is>
       </c>
       <c r="E540" t="inlineStr">
@@ -20998,7 +20998,7 @@
       </c>
       <c r="D548" t="inlineStr">
         <is>
-          <t>0.015</t>
+          <t>0.0150</t>
         </is>
       </c>
       <c r="E548" t="inlineStr">
@@ -21302,7 +21302,7 @@
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>0.008</t>
+          <t>0.0080</t>
         </is>
       </c>
       <c r="E556" t="inlineStr">
@@ -21606,7 +21606,7 @@
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>0.014</t>
+          <t>0.0140</t>
         </is>
       </c>
       <c r="E564" t="inlineStr">
@@ -21910,7 +21910,7 @@
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t>0.051</t>
+          <t>0.0510</t>
         </is>
       </c>
       <c r="E572" t="inlineStr">
@@ -22214,7 +22214,7 @@
       </c>
       <c r="D580" t="inlineStr">
         <is>
-          <t>0.038</t>
+          <t>0.0380</t>
         </is>
       </c>
       <c r="E580" t="inlineStr">
@@ -22518,7 +22518,7 @@
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>0.027</t>
+          <t>0.0270</t>
         </is>
       </c>
       <c r="E588" t="inlineStr">
@@ -23365,7 +23365,7 @@
       </c>
       <c r="D613" t="inlineStr">
         <is>
-          <t>0.012</t>
+          <t>0.0120</t>
         </is>
       </c>
       <c r="E613" t="inlineStr">
@@ -23685,7 +23685,7 @@
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>&lt;0.014</t>
+          <t>&lt;0.0140</t>
         </is>
       </c>
       <c r="E621" t="inlineStr">
@@ -23974,7 +23974,7 @@
       </c>
       <c r="D628" t="inlineStr">
         <is>
-          <t>&lt;0.014</t>
+          <t>&lt;0.0140</t>
         </is>
       </c>
       <c r="E628" t="inlineStr">
@@ -24294,7 +24294,7 @@
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t>0.327</t>
+          <t>0.3270</t>
         </is>
       </c>
       <c r="E636" t="inlineStr">
@@ -24614,7 +24614,7 @@
       </c>
       <c r="D644" t="inlineStr">
         <is>
-          <t>0.012</t>
+          <t>0.0120</t>
         </is>
       </c>
       <c r="E644" t="inlineStr">
@@ -24934,7 +24934,7 @@
       </c>
       <c r="D652" t="inlineStr">
         <is>
-          <t>0.036</t>
+          <t>0.0360</t>
         </is>
       </c>
       <c r="E652" t="inlineStr">
@@ -25285,7 +25285,7 @@
       </c>
       <c r="D661" t="inlineStr">
         <is>
-          <t>0.035</t>
+          <t>0.0350</t>
         </is>
       </c>
       <c r="E661" t="inlineStr">
@@ -25652,7 +25652,7 @@
       </c>
       <c r="D670" t="inlineStr">
         <is>
-          <t>0.020</t>
+          <t>0.0200</t>
         </is>
       </c>
       <c r="E670" t="inlineStr">
@@ -26019,7 +26019,7 @@
       </c>
       <c r="D679" t="inlineStr">
         <is>
-          <t>0.014</t>
+          <t>0.0140</t>
         </is>
       </c>
       <c r="E679" t="inlineStr">
@@ -26386,7 +26386,7 @@
       </c>
       <c r="D688" t="inlineStr">
         <is>
-          <t>0.009</t>
+          <t>0.0090</t>
         </is>
       </c>
       <c r="E688" t="inlineStr">
@@ -26753,7 +26753,7 @@
       </c>
       <c r="D697" t="inlineStr">
         <is>
-          <t>0.016</t>
+          <t>0.0160</t>
         </is>
       </c>
       <c r="E697" t="inlineStr">
@@ -27151,7 +27151,7 @@
       </c>
       <c r="D707" t="inlineStr">
         <is>
-          <t>0.010</t>
+          <t>0.0100</t>
         </is>
       </c>
       <c r="E707" t="inlineStr">
@@ -27549,7 +27549,7 @@
       </c>
       <c r="D717" t="inlineStr">
         <is>
-          <t>0.005</t>
+          <t>0.0050</t>
         </is>
       </c>
       <c r="E717" t="inlineStr">
@@ -27947,7 +27947,7 @@
       </c>
       <c r="D727" t="inlineStr">
         <is>
-          <t>0.004</t>
+          <t>0.0035</t>
         </is>
       </c>
       <c r="E727" t="inlineStr">
@@ -28345,7 +28345,7 @@
       </c>
       <c r="D737" t="inlineStr">
         <is>
-          <t>0.003</t>
+          <t>0.0030</t>
         </is>
       </c>
       <c r="E737" t="inlineStr">
@@ -28743,7 +28743,7 @@
       </c>
       <c r="D747" t="inlineStr">
         <is>
-          <t>0.008</t>
+          <t>0.0080</t>
         </is>
       </c>
       <c r="E747" t="inlineStr">
@@ -29141,7 +29141,7 @@
       </c>
       <c r="D757" t="inlineStr">
         <is>
-          <t>0.052</t>
+          <t>0.0520</t>
         </is>
       </c>
       <c r="E757" t="inlineStr">
@@ -29539,7 +29539,7 @@
       </c>
       <c r="D767" t="inlineStr">
         <is>
-          <t>0.019</t>
+          <t>0.0190</t>
         </is>
       </c>
       <c r="E767" t="inlineStr">
@@ -29937,7 +29937,7 @@
       </c>
       <c r="D777" t="inlineStr">
         <is>
-          <t>0.013</t>
+          <t>0.0125</t>
         </is>
       </c>
       <c r="E777" t="inlineStr">
@@ -30335,7 +30335,7 @@
       </c>
       <c r="D787" t="inlineStr">
         <is>
-          <t>0.012</t>
+          <t>0.0120</t>
         </is>
       </c>
       <c r="E787" t="inlineStr">
@@ -30733,7 +30733,7 @@
       </c>
       <c r="D797" t="inlineStr">
         <is>
-          <t>0.013</t>
+          <t>0.0130</t>
         </is>
       </c>
       <c r="E797" t="inlineStr">
@@ -31131,7 +31131,7 @@
       </c>
       <c r="D807" t="inlineStr">
         <is>
-          <t>0.014</t>
+          <t>0.0140</t>
         </is>
       </c>
       <c r="E807" t="inlineStr">
@@ -31529,7 +31529,7 @@
       </c>
       <c r="D817" t="inlineStr">
         <is>
-          <t>0.017</t>
+          <t>0.0170</t>
         </is>
       </c>
       <c r="E817" t="inlineStr">
@@ -31927,7 +31927,7 @@
       </c>
       <c r="D827" t="inlineStr">
         <is>
-          <t>0.005</t>
+          <t>0.0050</t>
         </is>
       </c>
       <c r="E827" t="inlineStr">
@@ -32325,7 +32325,7 @@
       </c>
       <c r="D837" t="inlineStr">
         <is>
-          <t>0.008</t>
+          <t>0.0080</t>
         </is>
       </c>
       <c r="E837" t="inlineStr">
@@ -32723,7 +32723,7 @@
       </c>
       <c r="D847" t="inlineStr">
         <is>
-          <t>0.015</t>
+          <t>0.0150</t>
         </is>
       </c>
       <c r="E847" t="inlineStr">
@@ -33121,7 +33121,7 @@
       </c>
       <c r="D857" t="inlineStr">
         <is>
-          <t>0.011</t>
+          <t>0.0110</t>
         </is>
       </c>
       <c r="E857" t="inlineStr">
@@ -33519,7 +33519,7 @@
       </c>
       <c r="D867" t="inlineStr">
         <is>
-          <t>0.016</t>
+          <t>0.0160</t>
         </is>
       </c>
       <c r="E867" t="inlineStr">
@@ -33948,7 +33948,7 @@
       </c>
       <c r="D878" t="inlineStr">
         <is>
-          <t>0.022</t>
+          <t>0.0220</t>
         </is>
       </c>
       <c r="E878" t="inlineStr">
@@ -34346,7 +34346,7 @@
       </c>
       <c r="D888" t="inlineStr">
         <is>
-          <t>0.027</t>
+          <t>0.0270</t>
         </is>
       </c>
       <c r="E888" t="inlineStr">
@@ -34744,7 +34744,7 @@
       </c>
       <c r="D898" t="inlineStr">
         <is>
-          <t>0.023</t>
+          <t>0.0230</t>
         </is>
       </c>
       <c r="E898" t="inlineStr">
@@ -35111,7 +35111,7 @@
       </c>
       <c r="D907" t="inlineStr">
         <is>
-          <t>0.014</t>
+          <t>0.0140</t>
         </is>
       </c>
       <c r="E907" t="inlineStr">
@@ -35509,7 +35509,7 @@
       </c>
       <c r="D917" t="inlineStr">
         <is>
-          <t>0.012</t>
+          <t>0.0120</t>
         </is>
       </c>
       <c r="E917" t="inlineStr">
@@ -35907,7 +35907,7 @@
       </c>
       <c r="D927" t="inlineStr">
         <is>
-          <t>0.020</t>
+          <t>0.0200</t>
         </is>
       </c>
       <c r="E927" t="inlineStr">
@@ -36305,7 +36305,7 @@
       </c>
       <c r="D937" t="inlineStr">
         <is>
-          <t>0.014</t>
+          <t>0.0140</t>
         </is>
       </c>
       <c r="E937" t="inlineStr">
@@ -36672,7 +36672,7 @@
       </c>
       <c r="D946" t="inlineStr">
         <is>
-          <t>0.013</t>
+          <t>0.0130</t>
         </is>
       </c>
       <c r="E946" t="inlineStr">
@@ -37101,7 +37101,7 @@
       </c>
       <c r="D957" t="inlineStr">
         <is>
-          <t>0.012</t>
+          <t>0.0120</t>
         </is>
       </c>
       <c r="E957" t="inlineStr">
@@ -37499,7 +37499,7 @@
       </c>
       <c r="D967" t="inlineStr">
         <is>
-          <t>0.024</t>
+          <t>0.0240</t>
         </is>
       </c>
       <c r="E967" t="inlineStr">
@@ -37897,7 +37897,7 @@
       </c>
       <c r="D977" t="inlineStr">
         <is>
-          <t>0.028</t>
+          <t>0.0280</t>
         </is>
       </c>
       <c r="E977" t="inlineStr">
@@ -37999,6 +37999,4782 @@
       <c r="I979" t="inlineStr">
         <is>
           <t>7.320</t>
+        </is>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B980" t="inlineStr">
+        <is>
+          <t>Chlorophyll A</t>
+        </is>
+      </c>
+      <c r="C980" s="2" t="n">
+        <v>44763.00046296296</v>
+      </c>
+      <c r="D980" t="inlineStr">
+        <is>
+          <t>0.650</t>
+        </is>
+      </c>
+      <c r="E980" t="inlineStr"/>
+      <c r="F980" t="inlineStr"/>
+      <c r="G980" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
+      <c r="H980" t="n">
+        <v>200</v>
+      </c>
+      <c r="I980" t="inlineStr"/>
+    </row>
+    <row r="981">
+      <c r="A981" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B981" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C981" s="2" t="n">
+        <v>44763.47152777778</v>
+      </c>
+      <c r="D981" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="E981" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F981" t="inlineStr">
+        <is>
+          <t>NW02P Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
+        </is>
+      </c>
+      <c r="G981" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+      <c r="H981" t="n">
+        <v>600</v>
+      </c>
+      <c r="I981" t="inlineStr">
+        <is>
+          <t>7.330</t>
+        </is>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B982" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C982" s="2" t="n">
+        <v>44763.47152777778</v>
+      </c>
+      <c r="D982" t="inlineStr">
+        <is>
+          <t>0.02800</t>
+        </is>
+      </c>
+      <c r="E982" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F982" t="inlineStr">
+        <is>
+          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G982" t="inlineStr"/>
+      <c r="H982" t="n">
+        <v>600</v>
+      </c>
+      <c r="I982" t="inlineStr">
+        <is>
+          <t>7.330</t>
+        </is>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B983" t="inlineStr">
+        <is>
+          <t>Dissolved Oxygen Concentration</t>
+        </is>
+      </c>
+      <c r="C983" s="2" t="n">
+        <v>44763.47152777778</v>
+      </c>
+      <c r="D983" t="inlineStr">
+        <is>
+          <t>11.090</t>
+        </is>
+      </c>
+      <c r="E983" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F983" t="inlineStr"/>
+      <c r="G983" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+      <c r="H983" t="n">
+        <v>600</v>
+      </c>
+      <c r="I983" t="inlineStr">
+        <is>
+          <t>7.330</t>
+        </is>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B984" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C984" s="2" t="n">
+        <v>44763.47152777778</v>
+      </c>
+      <c r="D984" t="inlineStr">
+        <is>
+          <t>7.330</t>
+        </is>
+      </c>
+      <c r="E984" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F984" t="inlineStr"/>
+      <c r="G984" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="H984" t="n">
+        <v>600</v>
+      </c>
+      <c r="I984" t="inlineStr">
+        <is>
+          <t>7.330</t>
+        </is>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B985" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C985" s="2" t="n">
+        <v>44763.47152777778</v>
+      </c>
+      <c r="D985" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="E985" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F985" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
+      <c r="G985" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H985" t="n">
+        <v>600</v>
+      </c>
+      <c r="I985" t="inlineStr">
+        <is>
+          <t>7.330</t>
+        </is>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B986" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C986" s="2" t="n">
+        <v>44763.47152777778</v>
+      </c>
+      <c r="D986" t="inlineStr">
+        <is>
+          <t>&lt;0.002</t>
+        </is>
+      </c>
+      <c r="E986" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F986" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
+      <c r="G986" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H986" t="n">
+        <v>600</v>
+      </c>
+      <c r="I986" t="inlineStr">
+        <is>
+          <t>7.330</t>
+        </is>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B987" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C987" s="2" t="n">
+        <v>44763.47152777778</v>
+      </c>
+      <c r="D987" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="E987" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F987" t="inlineStr">
+        <is>
+          <t>Calculated (NH4 + TON)</t>
+        </is>
+      </c>
+      <c r="G987" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H987" t="n">
+        <v>300</v>
+      </c>
+      <c r="I987" t="inlineStr">
+        <is>
+          <t>7.330</t>
+        </is>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B988" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C988" s="2" t="n">
+        <v>44763.47152777778</v>
+      </c>
+      <c r="D988" t="inlineStr">
+        <is>
+          <t>0.05000</t>
+        </is>
+      </c>
+      <c r="E988" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F988" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
+        </is>
+      </c>
+      <c r="G988" t="inlineStr"/>
+      <c r="H988" t="n">
+        <v>600</v>
+      </c>
+      <c r="I988" t="inlineStr">
+        <is>
+          <t>7.330</t>
+        </is>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B989" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C989" s="2" t="n">
+        <v>44763.47152777778</v>
+      </c>
+      <c r="D989" t="inlineStr">
+        <is>
+          <t>0.03200</t>
+        </is>
+      </c>
+      <c r="E989" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F989" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G989" t="inlineStr"/>
+      <c r="H989" t="n">
+        <v>600</v>
+      </c>
+      <c r="I989" t="inlineStr">
+        <is>
+          <t>7.330</t>
+        </is>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B990" t="inlineStr">
+        <is>
+          <t>Chlorophyll A</t>
+        </is>
+      </c>
+      <c r="C990" s="2" t="n">
+        <v>44791.00046296296</v>
+      </c>
+      <c r="D990" t="inlineStr">
+        <is>
+          <t>2.050</t>
+        </is>
+      </c>
+      <c r="E990" t="inlineStr"/>
+      <c r="F990" t="inlineStr"/>
+      <c r="G990" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
+      <c r="H990" t="n">
+        <v>200</v>
+      </c>
+      <c r="I990" t="inlineStr"/>
+    </row>
+    <row r="991">
+      <c r="A991" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B991" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C991" s="2" t="n">
+        <v>44791.45347222222</v>
+      </c>
+      <c r="D991" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="E991" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F991" t="inlineStr">
+        <is>
+          <t>NW02P Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
+        </is>
+      </c>
+      <c r="G991" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+      <c r="H991" t="n">
+        <v>600</v>
+      </c>
+      <c r="I991" t="inlineStr">
+        <is>
+          <t>7.570</t>
+        </is>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B992" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C992" s="2" t="n">
+        <v>44791.45347222222</v>
+      </c>
+      <c r="D992" t="inlineStr">
+        <is>
+          <t>0.006000</t>
+        </is>
+      </c>
+      <c r="E992" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F992" t="inlineStr">
+        <is>
+          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G992" t="inlineStr"/>
+      <c r="H992" t="n">
+        <v>600</v>
+      </c>
+      <c r="I992" t="inlineStr">
+        <is>
+          <t>7.570</t>
+        </is>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B993" t="inlineStr">
+        <is>
+          <t>Dissolved Oxygen Concentration</t>
+        </is>
+      </c>
+      <c r="C993" s="2" t="n">
+        <v>44791.45347222222</v>
+      </c>
+      <c r="D993" t="inlineStr">
+        <is>
+          <t>10.770</t>
+        </is>
+      </c>
+      <c r="E993" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F993" t="inlineStr"/>
+      <c r="G993" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+      <c r="H993" t="n">
+        <v>600</v>
+      </c>
+      <c r="I993" t="inlineStr">
+        <is>
+          <t>7.570</t>
+        </is>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B994" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C994" s="2" t="n">
+        <v>44791.45347222222</v>
+      </c>
+      <c r="D994" t="inlineStr">
+        <is>
+          <t>7.570</t>
+        </is>
+      </c>
+      <c r="E994" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F994" t="inlineStr"/>
+      <c r="G994" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="H994" t="n">
+        <v>600</v>
+      </c>
+      <c r="I994" t="inlineStr">
+        <is>
+          <t>7.570</t>
+        </is>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B995" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C995" s="2" t="n">
+        <v>44791.45347222222</v>
+      </c>
+      <c r="D995" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="E995" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F995" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
+      <c r="G995" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H995" t="n">
+        <v>600</v>
+      </c>
+      <c r="I995" t="inlineStr">
+        <is>
+          <t>7.570</t>
+        </is>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B996" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C996" s="2" t="n">
+        <v>44791.45347222222</v>
+      </c>
+      <c r="D996" t="inlineStr">
+        <is>
+          <t>&lt;0.002</t>
+        </is>
+      </c>
+      <c r="E996" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F996" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
+      <c r="G996" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H996" t="n">
+        <v>600</v>
+      </c>
+      <c r="I996" t="inlineStr">
+        <is>
+          <t>7.570</t>
+        </is>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B997" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C997" s="2" t="n">
+        <v>44791.45347222222</v>
+      </c>
+      <c r="D997" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="E997" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F997" t="inlineStr">
+        <is>
+          <t>Calculated (NH4 + TON)</t>
+        </is>
+      </c>
+      <c r="G997" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H997" t="n">
+        <v>300</v>
+      </c>
+      <c r="I997" t="inlineStr">
+        <is>
+          <t>7.570</t>
+        </is>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B998" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C998" s="2" t="n">
+        <v>44791.45347222222</v>
+      </c>
+      <c r="D998" t="inlineStr">
+        <is>
+          <t>0.04000</t>
+        </is>
+      </c>
+      <c r="E998" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F998" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
+        </is>
+      </c>
+      <c r="G998" t="inlineStr"/>
+      <c r="H998" t="n">
+        <v>600</v>
+      </c>
+      <c r="I998" t="inlineStr">
+        <is>
+          <t>7.570</t>
+        </is>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B999" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C999" s="2" t="n">
+        <v>44791.45347222222</v>
+      </c>
+      <c r="D999" t="inlineStr">
+        <is>
+          <t>0.01000</t>
+        </is>
+      </c>
+      <c r="E999" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F999" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G999" t="inlineStr"/>
+      <c r="H999" t="n">
+        <v>600</v>
+      </c>
+      <c r="I999" t="inlineStr">
+        <is>
+          <t>7.570</t>
+        </is>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1000" t="inlineStr">
+        <is>
+          <t>Chlorophyll A</t>
+        </is>
+      </c>
+      <c r="C1000" s="2" t="n">
+        <v>44826.00046296296</v>
+      </c>
+      <c r="D1000" t="inlineStr">
+        <is>
+          <t>&lt;0.160</t>
+        </is>
+      </c>
+      <c r="E1000" t="inlineStr"/>
+      <c r="F1000" t="inlineStr"/>
+      <c r="G1000" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
+      <c r="H1000" t="n">
+        <v>200</v>
+      </c>
+      <c r="I1000" t="inlineStr"/>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1001" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C1001" s="2" t="n">
+        <v>44826.46458333333</v>
+      </c>
+      <c r="D1001" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="E1001" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1001" t="inlineStr">
+        <is>
+          <t>NW02P Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
+        </is>
+      </c>
+      <c r="G1001" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+      <c r="H1001" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1001" t="inlineStr">
+        <is>
+          <t>7.850</t>
+        </is>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1002" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C1002" s="2" t="n">
+        <v>44826.46458333333</v>
+      </c>
+      <c r="D1002" t="inlineStr">
+        <is>
+          <t>0.01100</t>
+        </is>
+      </c>
+      <c r="E1002" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1002" t="inlineStr">
+        <is>
+          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G1002" t="inlineStr"/>
+      <c r="H1002" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1002" t="inlineStr">
+        <is>
+          <t>7.850</t>
+        </is>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1003" t="inlineStr">
+        <is>
+          <t>Dissolved Oxygen Concentration</t>
+        </is>
+      </c>
+      <c r="C1003" s="2" t="n">
+        <v>44826.46458333333</v>
+      </c>
+      <c r="D1003" t="inlineStr">
+        <is>
+          <t>10.910</t>
+        </is>
+      </c>
+      <c r="E1003" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1003" t="inlineStr"/>
+      <c r="G1003" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+      <c r="H1003" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1003" t="inlineStr">
+        <is>
+          <t>7.850</t>
+        </is>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1004" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C1004" s="2" t="n">
+        <v>44826.46458333333</v>
+      </c>
+      <c r="D1004" t="inlineStr">
+        <is>
+          <t>7.850</t>
+        </is>
+      </c>
+      <c r="E1004" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1004" t="inlineStr"/>
+      <c r="G1004" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="H1004" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1004" t="inlineStr">
+        <is>
+          <t>7.850</t>
+        </is>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1005" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C1005" s="2" t="n">
+        <v>44826.46458333333</v>
+      </c>
+      <c r="D1005" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="E1005" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1005" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
+      <c r="G1005" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H1005" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1005" t="inlineStr">
+        <is>
+          <t>7.850</t>
+        </is>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1006" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C1006" s="2" t="n">
+        <v>44826.46458333333</v>
+      </c>
+      <c r="D1006" t="inlineStr">
+        <is>
+          <t>&lt;0.002</t>
+        </is>
+      </c>
+      <c r="E1006" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1006" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
+      <c r="G1006" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H1006" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1006" t="inlineStr">
+        <is>
+          <t>7.850</t>
+        </is>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1007" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C1007" s="2" t="n">
+        <v>44826.46458333333</v>
+      </c>
+      <c r="D1007" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="E1007" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1007" t="inlineStr">
+        <is>
+          <t>Calculated (NH4 + TON)</t>
+        </is>
+      </c>
+      <c r="G1007" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H1007" t="n">
+        <v>300</v>
+      </c>
+      <c r="I1007" t="inlineStr">
+        <is>
+          <t>7.850</t>
+        </is>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1008" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C1008" s="2" t="n">
+        <v>44826.46458333333</v>
+      </c>
+      <c r="D1008" t="inlineStr">
+        <is>
+          <t>0.04000</t>
+        </is>
+      </c>
+      <c r="E1008" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1008" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
+        </is>
+      </c>
+      <c r="G1008" t="inlineStr"/>
+      <c r="H1008" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1008" t="inlineStr">
+        <is>
+          <t>7.850</t>
+        </is>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1009" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C1009" s="2" t="n">
+        <v>44826.46458333333</v>
+      </c>
+      <c r="D1009" t="inlineStr">
+        <is>
+          <t>0.01300</t>
+        </is>
+      </c>
+      <c r="E1009" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1009" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G1009" t="inlineStr"/>
+      <c r="H1009" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1009" t="inlineStr">
+        <is>
+          <t>7.850</t>
+        </is>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1010" t="inlineStr">
+        <is>
+          <t>Chlorophyll A</t>
+        </is>
+      </c>
+      <c r="C1010" s="2" t="n">
+        <v>44854.00046296296</v>
+      </c>
+      <c r="D1010" t="inlineStr">
+        <is>
+          <t>2.050</t>
+        </is>
+      </c>
+      <c r="E1010" t="inlineStr"/>
+      <c r="F1010" t="inlineStr"/>
+      <c r="G1010" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
+      <c r="H1010" t="n">
+        <v>200</v>
+      </c>
+      <c r="I1010" t="inlineStr"/>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1011" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C1011" s="2" t="n">
+        <v>44854.41666666666</v>
+      </c>
+      <c r="D1011" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="E1011" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1011" t="inlineStr">
+        <is>
+          <t>NW02P Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
+        </is>
+      </c>
+      <c r="G1011" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+      <c r="H1011" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1011" t="inlineStr">
+        <is>
+          <t>6.630</t>
+        </is>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1012" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C1012" s="2" t="n">
+        <v>44854.41666666666</v>
+      </c>
+      <c r="D1012" t="inlineStr">
+        <is>
+          <t>0.01300</t>
+        </is>
+      </c>
+      <c r="E1012" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1012" t="inlineStr">
+        <is>
+          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G1012" t="inlineStr"/>
+      <c r="H1012" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1012" t="inlineStr">
+        <is>
+          <t>6.630</t>
+        </is>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1013" t="inlineStr">
+        <is>
+          <t>Dissolved Oxygen Concentration</t>
+        </is>
+      </c>
+      <c r="C1013" s="2" t="n">
+        <v>44854.41666666666</v>
+      </c>
+      <c r="D1013" t="inlineStr">
+        <is>
+          <t>10.890</t>
+        </is>
+      </c>
+      <c r="E1013" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1013" t="inlineStr"/>
+      <c r="G1013" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+      <c r="H1013" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1013" t="inlineStr">
+        <is>
+          <t>6.630</t>
+        </is>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1014" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C1014" s="2" t="n">
+        <v>44854.41666666666</v>
+      </c>
+      <c r="D1014" t="inlineStr">
+        <is>
+          <t>6.630</t>
+        </is>
+      </c>
+      <c r="E1014" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1014" t="inlineStr"/>
+      <c r="G1014" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="H1014" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1014" t="inlineStr">
+        <is>
+          <t>6.630</t>
+        </is>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1015" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C1015" s="2" t="n">
+        <v>44854.41666666666</v>
+      </c>
+      <c r="D1015" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="E1015" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1015" t="inlineStr">
+        <is>
+          <t>Calculation from NNN - Nitrite (both being APHA Online Edition Method 4500)</t>
+        </is>
+      </c>
+      <c r="G1015" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H1015" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1015" t="inlineStr">
+        <is>
+          <t>6.630</t>
+        </is>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1016" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C1016" s="2" t="n">
+        <v>44854.41666666666</v>
+      </c>
+      <c r="D1016" t="inlineStr">
+        <is>
+          <t>&lt;0.002</t>
+        </is>
+      </c>
+      <c r="E1016" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1016" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
+      <c r="G1016" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H1016" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1016" t="inlineStr">
+        <is>
+          <t>6.630</t>
+        </is>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1017" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C1017" s="2" t="n">
+        <v>44854.41666666666</v>
+      </c>
+      <c r="D1017" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="E1017" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1017" t="inlineStr">
+        <is>
+          <t>Calculated (NH4 + TON)</t>
+        </is>
+      </c>
+      <c r="G1017" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H1017" t="n">
+        <v>300</v>
+      </c>
+      <c r="I1017" t="inlineStr">
+        <is>
+          <t>6.630</t>
+        </is>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1018" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C1018" s="2" t="n">
+        <v>44854.41666666666</v>
+      </c>
+      <c r="D1018" t="inlineStr">
+        <is>
+          <t>0.01000</t>
+        </is>
+      </c>
+      <c r="E1018" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1018" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
+        </is>
+      </c>
+      <c r="G1018" t="inlineStr"/>
+      <c r="H1018" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1018" t="inlineStr">
+        <is>
+          <t>6.630</t>
+        </is>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1019" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C1019" s="2" t="n">
+        <v>44854.41666666666</v>
+      </c>
+      <c r="D1019" t="inlineStr">
+        <is>
+          <t>0.01400</t>
+        </is>
+      </c>
+      <c r="E1019" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1019" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G1019" t="inlineStr"/>
+      <c r="H1019" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1019" t="inlineStr">
+        <is>
+          <t>6.630</t>
+        </is>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1020" t="inlineStr">
+        <is>
+          <t>Chlorophyll A</t>
+        </is>
+      </c>
+      <c r="C1020" s="2" t="n">
+        <v>44889.00046296296</v>
+      </c>
+      <c r="D1020" t="inlineStr">
+        <is>
+          <t>0.950</t>
+        </is>
+      </c>
+      <c r="E1020" t="inlineStr"/>
+      <c r="F1020" t="inlineStr"/>
+      <c r="G1020" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
+      <c r="H1020" t="n">
+        <v>200</v>
+      </c>
+      <c r="I1020" t="inlineStr"/>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1021" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C1021" s="2" t="n">
+        <v>44889.42986111111</v>
+      </c>
+      <c r="D1021" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="E1021" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1021" t="inlineStr">
+        <is>
+          <t>NW02P Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
+        </is>
+      </c>
+      <c r="G1021" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+      <c r="H1021" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1021" t="inlineStr">
+        <is>
+          <t>7.760</t>
+        </is>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1022" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C1022" s="2" t="n">
+        <v>44889.42986111111</v>
+      </c>
+      <c r="D1022" t="inlineStr">
+        <is>
+          <t>0.008000</t>
+        </is>
+      </c>
+      <c r="E1022" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1022" t="inlineStr">
+        <is>
+          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G1022" t="inlineStr"/>
+      <c r="H1022" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1022" t="inlineStr">
+        <is>
+          <t>7.760</t>
+        </is>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1023" t="inlineStr">
+        <is>
+          <t>Dissolved Oxygen Concentration</t>
+        </is>
+      </c>
+      <c r="C1023" s="2" t="n">
+        <v>44889.42986111111</v>
+      </c>
+      <c r="D1023" t="inlineStr">
+        <is>
+          <t>10.480</t>
+        </is>
+      </c>
+      <c r="E1023" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1023" t="inlineStr"/>
+      <c r="G1023" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+      <c r="H1023" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1023" t="inlineStr">
+        <is>
+          <t>7.760</t>
+        </is>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1024" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C1024" s="2" t="n">
+        <v>44889.42986111111</v>
+      </c>
+      <c r="D1024" t="inlineStr">
+        <is>
+          <t>7.760</t>
+        </is>
+      </c>
+      <c r="E1024" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1024" t="inlineStr"/>
+      <c r="G1024" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="H1024" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1024" t="inlineStr">
+        <is>
+          <t>7.760</t>
+        </is>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1025" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C1025" s="2" t="n">
+        <v>44889.42986111111</v>
+      </c>
+      <c r="D1025" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="E1025" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1025" t="inlineStr">
+        <is>
+          <t>Calculation from NNN - Nitrite (both being APHA Online Edition Method 4500)</t>
+        </is>
+      </c>
+      <c r="G1025" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H1025" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1025" t="inlineStr">
+        <is>
+          <t>7.760</t>
+        </is>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1026" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C1026" s="2" t="n">
+        <v>44889.42986111111</v>
+      </c>
+      <c r="D1026" t="inlineStr">
+        <is>
+          <t>&lt;0.002</t>
+        </is>
+      </c>
+      <c r="E1026" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1026" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
+      <c r="G1026" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H1026" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1026" t="inlineStr">
+        <is>
+          <t>7.760</t>
+        </is>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1027" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C1027" s="2" t="n">
+        <v>44889.42986111111</v>
+      </c>
+      <c r="D1027" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="E1027" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1027" t="inlineStr">
+        <is>
+          <t>Calculated (NH4 + TON)</t>
+        </is>
+      </c>
+      <c r="G1027" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H1027" t="n">
+        <v>300</v>
+      </c>
+      <c r="I1027" t="inlineStr">
+        <is>
+          <t>7.760</t>
+        </is>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1028" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C1028" s="2" t="n">
+        <v>44889.42986111111</v>
+      </c>
+      <c r="D1028" t="inlineStr">
+        <is>
+          <t>0.05000</t>
+        </is>
+      </c>
+      <c r="E1028" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1028" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
+        </is>
+      </c>
+      <c r="G1028" t="inlineStr"/>
+      <c r="H1028" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1028" t="inlineStr">
+        <is>
+          <t>7.760</t>
+        </is>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1029" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C1029" s="2" t="n">
+        <v>44889.42986111111</v>
+      </c>
+      <c r="D1029" t="inlineStr">
+        <is>
+          <t>0.01400</t>
+        </is>
+      </c>
+      <c r="E1029" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1029" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G1029" t="inlineStr"/>
+      <c r="H1029" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1029" t="inlineStr">
+        <is>
+          <t>7.760</t>
+        </is>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1030" t="inlineStr">
+        <is>
+          <t>Chlorophyll A</t>
+        </is>
+      </c>
+      <c r="C1030" s="2" t="n">
+        <v>44916.00046296296</v>
+      </c>
+      <c r="D1030" t="inlineStr">
+        <is>
+          <t>0.435</t>
+        </is>
+      </c>
+      <c r="E1030" t="inlineStr"/>
+      <c r="F1030" t="inlineStr"/>
+      <c r="G1030" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
+      <c r="H1030" t="n">
+        <v>200</v>
+      </c>
+      <c r="I1030" t="inlineStr"/>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1031" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C1031" s="2" t="n">
+        <v>44916.42430555556</v>
+      </c>
+      <c r="D1031" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="E1031" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1031" t="inlineStr">
+        <is>
+          <t>NW02P Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
+        </is>
+      </c>
+      <c r="G1031" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+      <c r="H1031" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1031" t="inlineStr">
+        <is>
+          <t>6.590</t>
+        </is>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1032" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C1032" s="2" t="n">
+        <v>44916.42430555556</v>
+      </c>
+      <c r="D1032" t="inlineStr">
+        <is>
+          <t>0.01300</t>
+        </is>
+      </c>
+      <c r="E1032" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1032" t="inlineStr">
+        <is>
+          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G1032" t="inlineStr"/>
+      <c r="H1032" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1032" t="inlineStr">
+        <is>
+          <t>6.590</t>
+        </is>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1033" t="inlineStr">
+        <is>
+          <t>Dissolved Oxygen Concentration</t>
+        </is>
+      </c>
+      <c r="C1033" s="2" t="n">
+        <v>44916.42430555556</v>
+      </c>
+      <c r="D1033" t="inlineStr">
+        <is>
+          <t>10.160</t>
+        </is>
+      </c>
+      <c r="E1033" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1033" t="inlineStr"/>
+      <c r="G1033" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+      <c r="H1033" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1033" t="inlineStr">
+        <is>
+          <t>6.590</t>
+        </is>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1034" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C1034" s="2" t="n">
+        <v>44916.42430555556</v>
+      </c>
+      <c r="D1034" t="inlineStr">
+        <is>
+          <t>6.590</t>
+        </is>
+      </c>
+      <c r="E1034" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1034" t="inlineStr"/>
+      <c r="G1034" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="H1034" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1034" t="inlineStr">
+        <is>
+          <t>6.590</t>
+        </is>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1035" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C1035" s="2" t="n">
+        <v>44916.42430555556</v>
+      </c>
+      <c r="D1035" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="E1035" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1035" t="inlineStr">
+        <is>
+          <t>Calculation from NNN - Nitrite (both being APHA Online Edition Method 4500)</t>
+        </is>
+      </c>
+      <c r="G1035" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H1035" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1035" t="inlineStr">
+        <is>
+          <t>6.590</t>
+        </is>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1036" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C1036" s="2" t="n">
+        <v>44916.42430555556</v>
+      </c>
+      <c r="D1036" t="inlineStr">
+        <is>
+          <t>&lt;0.002</t>
+        </is>
+      </c>
+      <c r="E1036" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1036" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
+      <c r="G1036" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H1036" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1036" t="inlineStr">
+        <is>
+          <t>6.590</t>
+        </is>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1037" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C1037" s="2" t="n">
+        <v>44916.42430555556</v>
+      </c>
+      <c r="D1037" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="E1037" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1037" t="inlineStr">
+        <is>
+          <t>Calculated (NH4 + TON)</t>
+        </is>
+      </c>
+      <c r="G1037" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H1037" t="n">
+        <v>300</v>
+      </c>
+      <c r="I1037" t="inlineStr">
+        <is>
+          <t>6.590</t>
+        </is>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1038" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C1038" s="2" t="n">
+        <v>44916.42430555556</v>
+      </c>
+      <c r="D1038" t="inlineStr">
+        <is>
+          <t>0.04000</t>
+        </is>
+      </c>
+      <c r="E1038" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1038" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
+        </is>
+      </c>
+      <c r="G1038" t="inlineStr"/>
+      <c r="H1038" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1038" t="inlineStr">
+        <is>
+          <t>6.590</t>
+        </is>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1039" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C1039" s="2" t="n">
+        <v>44916.42430555556</v>
+      </c>
+      <c r="D1039" t="inlineStr">
+        <is>
+          <t>0.01200</t>
+        </is>
+      </c>
+      <c r="E1039" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1039" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G1039" t="inlineStr"/>
+      <c r="H1039" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1039" t="inlineStr">
+        <is>
+          <t>6.590</t>
+        </is>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1040" t="inlineStr">
+        <is>
+          <t>Chlorophyll A</t>
+        </is>
+      </c>
+      <c r="C1040" s="2" t="n">
+        <v>44952.00046296296</v>
+      </c>
+      <c r="D1040" t="inlineStr">
+        <is>
+          <t>2.850</t>
+        </is>
+      </c>
+      <c r="E1040" t="inlineStr"/>
+      <c r="F1040" t="inlineStr"/>
+      <c r="G1040" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
+      <c r="H1040" t="n">
+        <v>200</v>
+      </c>
+      <c r="I1040" t="inlineStr"/>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1041" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C1041" s="2" t="n">
+        <v>44952.43333333333</v>
+      </c>
+      <c r="D1041" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="E1041" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1041" t="inlineStr">
+        <is>
+          <t>NW02P Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
+        </is>
+      </c>
+      <c r="G1041" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+      <c r="H1041" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1041" t="inlineStr">
+        <is>
+          <t>7.460</t>
+        </is>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1042" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C1042" s="2" t="n">
+        <v>44952.43333333333</v>
+      </c>
+      <c r="D1042" t="inlineStr">
+        <is>
+          <t>0.01700</t>
+        </is>
+      </c>
+      <c r="E1042" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1042" t="inlineStr">
+        <is>
+          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G1042" t="inlineStr"/>
+      <c r="H1042" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1042" t="inlineStr">
+        <is>
+          <t>7.460</t>
+        </is>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1043" t="inlineStr">
+        <is>
+          <t>Dissolved Oxygen Concentration</t>
+        </is>
+      </c>
+      <c r="C1043" s="2" t="n">
+        <v>44952.43333333333</v>
+      </c>
+      <c r="D1043" t="inlineStr">
+        <is>
+          <t>10.230</t>
+        </is>
+      </c>
+      <c r="E1043" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1043" t="inlineStr"/>
+      <c r="G1043" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+      <c r="H1043" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1043" t="inlineStr">
+        <is>
+          <t>7.460</t>
+        </is>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1044" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C1044" s="2" t="n">
+        <v>44952.43333333333</v>
+      </c>
+      <c r="D1044" t="inlineStr">
+        <is>
+          <t>7.460</t>
+        </is>
+      </c>
+      <c r="E1044" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1044" t="inlineStr"/>
+      <c r="G1044" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="H1044" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1044" t="inlineStr">
+        <is>
+          <t>7.460</t>
+        </is>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1045" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C1045" s="2" t="n">
+        <v>44952.43333333333</v>
+      </c>
+      <c r="D1045" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="E1045" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1045" t="inlineStr">
+        <is>
+          <t>Calculation from NNN - Nitrite (both being APHA Online Edition Method 4500)</t>
+        </is>
+      </c>
+      <c r="G1045" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H1045" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1045" t="inlineStr">
+        <is>
+          <t>7.460</t>
+        </is>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1046" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C1046" s="2" t="n">
+        <v>44952.43333333333</v>
+      </c>
+      <c r="D1046" t="inlineStr">
+        <is>
+          <t>&lt;0.002</t>
+        </is>
+      </c>
+      <c r="E1046" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1046" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
+      <c r="G1046" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H1046" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1046" t="inlineStr">
+        <is>
+          <t>7.460</t>
+        </is>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1047" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C1047" s="2" t="n">
+        <v>44952.43333333333</v>
+      </c>
+      <c r="D1047" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="E1047" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1047" t="inlineStr">
+        <is>
+          <t>Calculated (NH4 + TON)</t>
+        </is>
+      </c>
+      <c r="G1047" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H1047" t="n">
+        <v>300</v>
+      </c>
+      <c r="I1047" t="inlineStr">
+        <is>
+          <t>7.460</t>
+        </is>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1048" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C1048" s="2" t="n">
+        <v>44952.43333333333</v>
+      </c>
+      <c r="D1048" t="inlineStr">
+        <is>
+          <t>0.01000</t>
+        </is>
+      </c>
+      <c r="E1048" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1048" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
+        </is>
+      </c>
+      <c r="G1048" t="inlineStr"/>
+      <c r="H1048" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1048" t="inlineStr">
+        <is>
+          <t>7.460</t>
+        </is>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1049" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C1049" s="2" t="n">
+        <v>44952.43333333333</v>
+      </c>
+      <c r="D1049" t="inlineStr">
+        <is>
+          <t>0.01600</t>
+        </is>
+      </c>
+      <c r="E1049" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1049" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G1049" t="inlineStr"/>
+      <c r="H1049" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1049" t="inlineStr">
+        <is>
+          <t>7.460</t>
+        </is>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1050" t="inlineStr">
+        <is>
+          <t>Chlorophyll A</t>
+        </is>
+      </c>
+      <c r="C1050" s="2" t="n">
+        <v>44980.00046296296</v>
+      </c>
+      <c r="D1050" t="inlineStr">
+        <is>
+          <t>2.300</t>
+        </is>
+      </c>
+      <c r="E1050" t="inlineStr"/>
+      <c r="F1050" t="inlineStr"/>
+      <c r="G1050" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
+      <c r="H1050" t="n">
+        <v>200</v>
+      </c>
+      <c r="I1050" t="inlineStr"/>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1051" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C1051" s="2" t="n">
+        <v>44980.43402777778</v>
+      </c>
+      <c r="D1051" t="inlineStr">
+        <is>
+          <t>&lt;0.0010</t>
+        </is>
+      </c>
+      <c r="E1051" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1051" t="inlineStr">
+        <is>
+          <t>NW02P Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
+        </is>
+      </c>
+      <c r="G1051" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+      <c r="H1051" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1051" t="inlineStr">
+        <is>
+          <t>7.470</t>
+        </is>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1052" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C1052" s="2" t="n">
+        <v>44980.43402777778</v>
+      </c>
+      <c r="D1052" t="inlineStr">
+        <is>
+          <t>0.01500</t>
+        </is>
+      </c>
+      <c r="E1052" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1052" t="inlineStr">
+        <is>
+          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G1052" t="inlineStr"/>
+      <c r="H1052" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1052" t="inlineStr">
+        <is>
+          <t>7.470</t>
+        </is>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1053" t="inlineStr">
+        <is>
+          <t>Dissolved Oxygen Concentration</t>
+        </is>
+      </c>
+      <c r="C1053" s="2" t="n">
+        <v>44980.43402777778</v>
+      </c>
+      <c r="D1053" t="inlineStr">
+        <is>
+          <t>10.250</t>
+        </is>
+      </c>
+      <c r="E1053" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1053" t="inlineStr"/>
+      <c r="G1053" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+      <c r="H1053" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1053" t="inlineStr">
+        <is>
+          <t>7.470</t>
+        </is>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1054" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C1054" s="2" t="n">
+        <v>44980.43402777778</v>
+      </c>
+      <c r="D1054" t="inlineStr">
+        <is>
+          <t>7.470</t>
+        </is>
+      </c>
+      <c r="E1054" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1054" t="inlineStr"/>
+      <c r="G1054" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="H1054" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1054" t="inlineStr">
+        <is>
+          <t>7.470</t>
+        </is>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1055" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C1055" s="2" t="n">
+        <v>44980.43402777778</v>
+      </c>
+      <c r="D1055" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="E1055" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1055" t="inlineStr">
+        <is>
+          <t>Calculation from NNN - Nitrite (both being APHA Online Edition Method 4500)</t>
+        </is>
+      </c>
+      <c r="G1055" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H1055" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1055" t="inlineStr">
+        <is>
+          <t>7.470</t>
+        </is>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1056" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C1056" s="2" t="n">
+        <v>44980.43402777778</v>
+      </c>
+      <c r="D1056" t="inlineStr">
+        <is>
+          <t>&lt;0.002</t>
+        </is>
+      </c>
+      <c r="E1056" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1056" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
+      <c r="G1056" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H1056" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1056" t="inlineStr">
+        <is>
+          <t>7.470</t>
+        </is>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1057" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C1057" s="2" t="n">
+        <v>44980.43402777778</v>
+      </c>
+      <c r="D1057" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="E1057" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1057" t="inlineStr">
+        <is>
+          <t>Calculated (NH4 + TON)</t>
+        </is>
+      </c>
+      <c r="G1057" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H1057" t="n">
+        <v>300</v>
+      </c>
+      <c r="I1057" t="inlineStr">
+        <is>
+          <t>7.470</t>
+        </is>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1058" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C1058" s="2" t="n">
+        <v>44980.43402777778</v>
+      </c>
+      <c r="D1058" t="inlineStr">
+        <is>
+          <t>0.01000</t>
+        </is>
+      </c>
+      <c r="E1058" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1058" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
+        </is>
+      </c>
+      <c r="G1058" t="inlineStr"/>
+      <c r="H1058" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1058" t="inlineStr">
+        <is>
+          <t>7.470</t>
+        </is>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1059" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C1059" s="2" t="n">
+        <v>44980.43402777778</v>
+      </c>
+      <c r="D1059" t="inlineStr">
+        <is>
+          <t>0.01800</t>
+        </is>
+      </c>
+      <c r="E1059" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1059" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G1059" t="inlineStr"/>
+      <c r="H1059" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1059" t="inlineStr">
+        <is>
+          <t>7.470</t>
+        </is>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1060" t="inlineStr">
+        <is>
+          <t>Chlorophyll A</t>
+        </is>
+      </c>
+      <c r="C1060" s="2" t="n">
+        <v>45008.00046296296</v>
+      </c>
+      <c r="D1060" t="inlineStr">
+        <is>
+          <t>7.000</t>
+        </is>
+      </c>
+      <c r="E1060" t="inlineStr"/>
+      <c r="F1060" t="inlineStr"/>
+      <c r="G1060" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
+      <c r="H1060" t="n">
+        <v>200</v>
+      </c>
+      <c r="I1060" t="inlineStr"/>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1061" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C1061" s="2" t="n">
+        <v>45008.43194444444</v>
+      </c>
+      <c r="D1061" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="E1061" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1061" t="inlineStr">
+        <is>
+          <t>NW02P Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
+        </is>
+      </c>
+      <c r="G1061" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+      <c r="H1061" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1061" t="inlineStr">
+        <is>
+          <t>7.820</t>
+        </is>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1062" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C1062" s="2" t="n">
+        <v>45008.43194444444</v>
+      </c>
+      <c r="D1062" t="inlineStr">
+        <is>
+          <t>0.01700</t>
+        </is>
+      </c>
+      <c r="E1062" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1062" t="inlineStr">
+        <is>
+          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G1062" t="inlineStr"/>
+      <c r="H1062" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1062" t="inlineStr">
+        <is>
+          <t>7.820</t>
+        </is>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1063" t="inlineStr">
+        <is>
+          <t>Dissolved Oxygen Concentration</t>
+        </is>
+      </c>
+      <c r="C1063" s="2" t="n">
+        <v>45008.43194444444</v>
+      </c>
+      <c r="D1063" t="inlineStr">
+        <is>
+          <t>11.160</t>
+        </is>
+      </c>
+      <c r="E1063" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1063" t="inlineStr"/>
+      <c r="G1063" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+      <c r="H1063" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1063" t="inlineStr">
+        <is>
+          <t>7.820</t>
+        </is>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1064" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C1064" s="2" t="n">
+        <v>45008.43194444444</v>
+      </c>
+      <c r="D1064" t="inlineStr">
+        <is>
+          <t>7.820</t>
+        </is>
+      </c>
+      <c r="E1064" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1064" t="inlineStr"/>
+      <c r="G1064" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="H1064" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1064" t="inlineStr">
+        <is>
+          <t>7.820</t>
+        </is>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1065" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C1065" s="2" t="n">
+        <v>45008.43194444444</v>
+      </c>
+      <c r="D1065" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="E1065" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1065" t="inlineStr">
+        <is>
+          <t>Calculation from NNN - Nitrite (both being APHA Online Edition Method 4500)</t>
+        </is>
+      </c>
+      <c r="G1065" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H1065" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1065" t="inlineStr">
+        <is>
+          <t>7.820</t>
+        </is>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1066" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C1066" s="2" t="n">
+        <v>45008.43194444444</v>
+      </c>
+      <c r="D1066" t="inlineStr">
+        <is>
+          <t>&lt;0.002</t>
+        </is>
+      </c>
+      <c r="E1066" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1066" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
+      <c r="G1066" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H1066" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1066" t="inlineStr">
+        <is>
+          <t>7.820</t>
+        </is>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1067" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C1067" s="2" t="n">
+        <v>45008.43194444444</v>
+      </c>
+      <c r="D1067" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="E1067" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1067" t="inlineStr">
+        <is>
+          <t>Calculated (NH4 + TON)</t>
+        </is>
+      </c>
+      <c r="G1067" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H1067" t="n">
+        <v>300</v>
+      </c>
+      <c r="I1067" t="inlineStr">
+        <is>
+          <t>7.820</t>
+        </is>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1068" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C1068" s="2" t="n">
+        <v>45008.43194444444</v>
+      </c>
+      <c r="D1068" t="inlineStr">
+        <is>
+          <t>&lt;0.01000</t>
+        </is>
+      </c>
+      <c r="E1068" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1068" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
+        </is>
+      </c>
+      <c r="G1068" t="inlineStr"/>
+      <c r="H1068" t="n">
+        <v>500</v>
+      </c>
+      <c r="I1068" t="inlineStr">
+        <is>
+          <t>7.820</t>
+        </is>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1069" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C1069" s="2" t="n">
+        <v>45008.43194444444</v>
+      </c>
+      <c r="D1069" t="inlineStr">
+        <is>
+          <t>0.01400</t>
+        </is>
+      </c>
+      <c r="E1069" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1069" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G1069" t="inlineStr"/>
+      <c r="H1069" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1069" t="inlineStr">
+        <is>
+          <t>7.820</t>
+        </is>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1070" t="inlineStr">
+        <is>
+          <t>Chlorophyll A</t>
+        </is>
+      </c>
+      <c r="C1070" s="2" t="n">
+        <v>45044.00046296296</v>
+      </c>
+      <c r="D1070" t="inlineStr">
+        <is>
+          <t>18.000</t>
+        </is>
+      </c>
+      <c r="E1070" t="inlineStr"/>
+      <c r="F1070" t="inlineStr"/>
+      <c r="G1070" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
+      <c r="H1070" t="n">
+        <v>200</v>
+      </c>
+      <c r="I1070" t="inlineStr"/>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1071" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C1071" s="2" t="n">
+        <v>45044.44861111111</v>
+      </c>
+      <c r="D1071" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="E1071" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1071" t="inlineStr">
+        <is>
+          <t>NW02P Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
+        </is>
+      </c>
+      <c r="G1071" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+      <c r="H1071" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1071" t="inlineStr">
+        <is>
+          <t>7.530</t>
+        </is>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1072" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C1072" s="2" t="n">
+        <v>45044.44861111111</v>
+      </c>
+      <c r="D1072" t="inlineStr">
+        <is>
+          <t>0.01500</t>
+        </is>
+      </c>
+      <c r="E1072" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1072" t="inlineStr">
+        <is>
+          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G1072" t="inlineStr"/>
+      <c r="H1072" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1072" t="inlineStr">
+        <is>
+          <t>7.530</t>
+        </is>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1073" t="inlineStr">
+        <is>
+          <t>Dissolved Oxygen Concentration</t>
+        </is>
+      </c>
+      <c r="C1073" s="2" t="n">
+        <v>45044.44861111111</v>
+      </c>
+      <c r="D1073" t="inlineStr">
+        <is>
+          <t>11.240</t>
+        </is>
+      </c>
+      <c r="E1073" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1073" t="inlineStr"/>
+      <c r="G1073" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+      <c r="H1073" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1073" t="inlineStr">
+        <is>
+          <t>7.530</t>
+        </is>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1074" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C1074" s="2" t="n">
+        <v>45044.44861111111</v>
+      </c>
+      <c r="D1074" t="inlineStr">
+        <is>
+          <t>7.530</t>
+        </is>
+      </c>
+      <c r="E1074" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1074" t="inlineStr"/>
+      <c r="G1074" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="H1074" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1074" t="inlineStr">
+        <is>
+          <t>7.530</t>
+        </is>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1075" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C1075" s="2" t="n">
+        <v>45044.44861111111</v>
+      </c>
+      <c r="D1075" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="E1075" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1075" t="inlineStr">
+        <is>
+          <t>Calculation from NNN - Nitrite (both being APHA Online Edition Method 4500)</t>
+        </is>
+      </c>
+      <c r="G1075" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H1075" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1075" t="inlineStr">
+        <is>
+          <t>7.530</t>
+        </is>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1076" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C1076" s="2" t="n">
+        <v>45044.44861111111</v>
+      </c>
+      <c r="D1076" t="inlineStr">
+        <is>
+          <t>&lt;0.002</t>
+        </is>
+      </c>
+      <c r="E1076" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1076" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
+      <c r="G1076" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H1076" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1076" t="inlineStr">
+        <is>
+          <t>7.530</t>
+        </is>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1077" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C1077" s="2" t="n">
+        <v>45044.44861111111</v>
+      </c>
+      <c r="D1077" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="E1077" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1077" t="inlineStr">
+        <is>
+          <t>Calculated (NH4 + TON)</t>
+        </is>
+      </c>
+      <c r="G1077" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H1077" t="n">
+        <v>300</v>
+      </c>
+      <c r="I1077" t="inlineStr">
+        <is>
+          <t>7.530</t>
+        </is>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1078" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C1078" s="2" t="n">
+        <v>45044.44861111111</v>
+      </c>
+      <c r="D1078" t="inlineStr">
+        <is>
+          <t>0.02000</t>
+        </is>
+      </c>
+      <c r="E1078" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1078" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
+        </is>
+      </c>
+      <c r="G1078" t="inlineStr"/>
+      <c r="H1078" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1078" t="inlineStr">
+        <is>
+          <t>7.530</t>
+        </is>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1079" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C1079" s="2" t="n">
+        <v>45044.44861111111</v>
+      </c>
+      <c r="D1079" t="inlineStr">
+        <is>
+          <t>0.02000</t>
+        </is>
+      </c>
+      <c r="E1079" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1079" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G1079" t="inlineStr"/>
+      <c r="H1079" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1079" t="inlineStr">
+        <is>
+          <t>7.530</t>
+        </is>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1080" t="inlineStr">
+        <is>
+          <t>Chlorophyll A</t>
+        </is>
+      </c>
+      <c r="C1080" s="2" t="n">
+        <v>45063.00046296296</v>
+      </c>
+      <c r="D1080" t="inlineStr">
+        <is>
+          <t>12.000</t>
+        </is>
+      </c>
+      <c r="E1080" t="inlineStr"/>
+      <c r="F1080" t="inlineStr"/>
+      <c r="G1080" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
+      <c r="H1080" t="n">
+        <v>200</v>
+      </c>
+      <c r="I1080" t="inlineStr"/>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1081" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C1081" s="2" t="n">
+        <v>45064.41180555556</v>
+      </c>
+      <c r="D1081" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="E1081" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1081" t="inlineStr">
+        <is>
+          <t>NW02P Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
+        </is>
+      </c>
+      <c r="G1081" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+      <c r="H1081" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1081" t="inlineStr">
+        <is>
+          <t>7.340</t>
+        </is>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1082" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C1082" s="2" t="n">
+        <v>45064.41180555556</v>
+      </c>
+      <c r="D1082" t="inlineStr">
+        <is>
+          <t>0.01200</t>
+        </is>
+      </c>
+      <c r="E1082" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1082" t="inlineStr">
+        <is>
+          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G1082" t="inlineStr"/>
+      <c r="H1082" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1082" t="inlineStr">
+        <is>
+          <t>7.340</t>
+        </is>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1083" t="inlineStr">
+        <is>
+          <t>Dissolved Oxygen Concentration</t>
+        </is>
+      </c>
+      <c r="C1083" s="2" t="n">
+        <v>45064.41180555556</v>
+      </c>
+      <c r="D1083" t="inlineStr">
+        <is>
+          <t>11.470</t>
+        </is>
+      </c>
+      <c r="E1083" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1083" t="inlineStr"/>
+      <c r="G1083" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+      <c r="H1083" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1083" t="inlineStr">
+        <is>
+          <t>7.340</t>
+        </is>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1084" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C1084" s="2" t="n">
+        <v>45064.41180555556</v>
+      </c>
+      <c r="D1084" t="inlineStr">
+        <is>
+          <t>7.340</t>
+        </is>
+      </c>
+      <c r="E1084" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1084" t="inlineStr"/>
+      <c r="G1084" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="H1084" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1084" t="inlineStr">
+        <is>
+          <t>7.340</t>
+        </is>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1085" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C1085" s="2" t="n">
+        <v>45064.41180555556</v>
+      </c>
+      <c r="D1085" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="E1085" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1085" t="inlineStr">
+        <is>
+          <t>Calculation from NNN - Nitrite (both being APHA Online Edition Method 4500)</t>
+        </is>
+      </c>
+      <c r="G1085" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H1085" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1085" t="inlineStr">
+        <is>
+          <t>7.340</t>
+        </is>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1086" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C1086" s="2" t="n">
+        <v>45064.41180555556</v>
+      </c>
+      <c r="D1086" t="inlineStr">
+        <is>
+          <t>&lt;0.002</t>
+        </is>
+      </c>
+      <c r="E1086" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1086" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
+      <c r="G1086" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H1086" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1086" t="inlineStr">
+        <is>
+          <t>7.340</t>
+        </is>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1087" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C1087" s="2" t="n">
+        <v>45064.41180555556</v>
+      </c>
+      <c r="D1087" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="E1087" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1087" t="inlineStr">
+        <is>
+          <t>Calculated (NH4 + TON)</t>
+        </is>
+      </c>
+      <c r="G1087" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H1087" t="n">
+        <v>300</v>
+      </c>
+      <c r="I1087" t="inlineStr">
+        <is>
+          <t>7.340</t>
+        </is>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1088" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C1088" s="2" t="n">
+        <v>45064.41180555556</v>
+      </c>
+      <c r="D1088" t="inlineStr">
+        <is>
+          <t>0.03000</t>
+        </is>
+      </c>
+      <c r="E1088" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1088" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
+        </is>
+      </c>
+      <c r="G1088" t="inlineStr"/>
+      <c r="H1088" t="n">
+        <v>500</v>
+      </c>
+      <c r="I1088" t="inlineStr">
+        <is>
+          <t>7.340</t>
+        </is>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1089" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C1089" s="2" t="n">
+        <v>45064.41180555556</v>
+      </c>
+      <c r="D1089" t="inlineStr">
+        <is>
+          <t>0.01200</t>
+        </is>
+      </c>
+      <c r="E1089" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1089" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G1089" t="inlineStr"/>
+      <c r="H1089" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1089" t="inlineStr">
+        <is>
+          <t>7.340</t>
+        </is>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1090" t="inlineStr">
+        <is>
+          <t>Chlorophyll A</t>
+        </is>
+      </c>
+      <c r="C1090" s="2" t="n">
+        <v>45099.00046296296</v>
+      </c>
+      <c r="D1090" t="inlineStr">
+        <is>
+          <t>1.450</t>
+        </is>
+      </c>
+      <c r="E1090" t="inlineStr"/>
+      <c r="F1090" t="inlineStr"/>
+      <c r="G1090" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
+      <c r="H1090" t="n">
+        <v>200</v>
+      </c>
+      <c r="I1090" t="inlineStr"/>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1091" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C1091" s="2" t="n">
+        <v>45099.46736111111</v>
+      </c>
+      <c r="D1091" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="E1091" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1091" t="inlineStr">
+        <is>
+          <t>NW02P Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
+        </is>
+      </c>
+      <c r="G1091" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+      <c r="H1091" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1091" t="inlineStr">
+        <is>
+          <t>7.640</t>
+        </is>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1092" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C1092" s="2" t="n">
+        <v>45099.46736111111</v>
+      </c>
+      <c r="D1092" t="inlineStr">
+        <is>
+          <t>0.01800</t>
+        </is>
+      </c>
+      <c r="E1092" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1092" t="inlineStr">
+        <is>
+          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G1092" t="inlineStr"/>
+      <c r="H1092" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1092" t="inlineStr">
+        <is>
+          <t>7.640</t>
+        </is>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1093" t="inlineStr">
+        <is>
+          <t>Dissolved Oxygen Concentration</t>
+        </is>
+      </c>
+      <c r="C1093" s="2" t="n">
+        <v>45099.46736111111</v>
+      </c>
+      <c r="D1093" t="inlineStr">
+        <is>
+          <t>10.750</t>
+        </is>
+      </c>
+      <c r="E1093" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1093" t="inlineStr"/>
+      <c r="G1093" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+      <c r="H1093" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1093" t="inlineStr">
+        <is>
+          <t>7.640</t>
+        </is>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1094" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C1094" s="2" t="n">
+        <v>45099.46736111111</v>
+      </c>
+      <c r="D1094" t="inlineStr">
+        <is>
+          <t>7.640</t>
+        </is>
+      </c>
+      <c r="E1094" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1094" t="inlineStr"/>
+      <c r="G1094" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="H1094" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1094" t="inlineStr">
+        <is>
+          <t>7.640</t>
+        </is>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1095" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C1095" s="2" t="n">
+        <v>45099.46736111111</v>
+      </c>
+      <c r="D1095" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="E1095" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1095" t="inlineStr">
+        <is>
+          <t>Calculation from NNN - Nitrite (both being APHA Online Edition Method 4500)</t>
+        </is>
+      </c>
+      <c r="G1095" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H1095" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1095" t="inlineStr">
+        <is>
+          <t>7.640</t>
+        </is>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1096" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C1096" s="2" t="n">
+        <v>45099.46736111111</v>
+      </c>
+      <c r="D1096" t="inlineStr">
+        <is>
+          <t>&lt;0.002</t>
+        </is>
+      </c>
+      <c r="E1096" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1096" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
+      <c r="G1096" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H1096" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1096" t="inlineStr">
+        <is>
+          <t>7.640</t>
+        </is>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1097" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C1097" s="2" t="n">
+        <v>45099.46736111111</v>
+      </c>
+      <c r="D1097" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="E1097" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1097" t="inlineStr">
+        <is>
+          <t>Calculated (NH4 + TON)</t>
+        </is>
+      </c>
+      <c r="G1097" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H1097" t="n">
+        <v>300</v>
+      </c>
+      <c r="I1097" t="inlineStr">
+        <is>
+          <t>7.640</t>
+        </is>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1098" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C1098" s="2" t="n">
+        <v>45099.46736111111</v>
+      </c>
+      <c r="D1098" t="inlineStr">
+        <is>
+          <t>0.03000</t>
+        </is>
+      </c>
+      <c r="E1098" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1098" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
+        </is>
+      </c>
+      <c r="G1098" t="inlineStr"/>
+      <c r="H1098" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1098" t="inlineStr">
+        <is>
+          <t>7.640</t>
+        </is>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B1099" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C1099" s="2" t="n">
+        <v>45099.46736111111</v>
+      </c>
+      <c r="D1099" t="inlineStr">
+        <is>
+          <t>0.01500</t>
+        </is>
+      </c>
+      <c r="E1099" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F1099" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G1099" t="inlineStr"/>
+      <c r="H1099" t="n">
+        <v>600</v>
+      </c>
+      <c r="I1099" t="inlineStr">
+        <is>
+          <t>7.640</t>
         </is>
       </c>
     </row>
